--- a/Тестирование Аналитик .xlsx
+++ b/Тестирование Аналитик .xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win10\academica\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win10\academica\final\finalProjForGit\ExcellBek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76FD067-D7F5-452B-913D-FF7FC7363A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F511002-5B0A-490E-896A-4B6C5425E248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="График товарооборт и доходность" sheetId="5" r:id="rId3"/>
-    <sheet name="сводная топ3" sheetId="4" r:id="rId4"/>
+    <sheet name="Топ 3 по доле в общем ТО" sheetId="4" r:id="rId4"/>
+    <sheet name="Товароборот на склад" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,14 +37,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="XrA7s7JUPI1ei4XynRp6rHpA19TIlGoJVFHZMuMG148="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="XrA7s7JUPI1ei4XynRp6rHpA19TIlGoJVFHZMuMG148="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="42">
   <si>
     <t>Дата</t>
   </si>
@@ -160,6 +161,15 @@
   </si>
   <si>
     <t>Неделя</t>
+  </si>
+  <si>
+    <t>(Все)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Товарооборот на склад</t>
   </si>
 </sst>
 </file>
@@ -365,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -403,6 +413,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2332,7 +2343,7 @@
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:K505" sheet="Лист1"/>
   </cacheSource>
-  <cacheFields count="10">
+  <cacheFields count="12">
     <cacheField name="неделя" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18" maxValue="23" count="6">
         <n v="22"/>
@@ -2884,7 +2895,32 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8642.376923076923" maxValue="1101833.4472307691"/>
     </cacheField>
     <cacheField name="Количество складов" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="129"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="129" count="24">
+        <n v="15"/>
+        <n v="21"/>
+        <n v="20"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="31"/>
+        <n v="10"/>
+        <n v="17"/>
+        <n v="129"/>
+        <n v="128"/>
+        <n v="125"/>
+        <n v="124"/>
+        <n v="36"/>
+        <n v="37"/>
+        <n v="23"/>
+        <n v="22"/>
+        <n v="16"/>
+        <n v="59"/>
+        <n v="60"/>
+        <n v="54"/>
+        <n v="7"/>
+        <n v="9"/>
+        <n v="6"/>
+        <n v="123"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Количество заказов" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="237" maxValue="25828" count="481">
@@ -3374,6 +3410,8 @@
     <cacheField name="Количество клиентов" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="175" maxValue="23974"/>
     </cacheField>
+    <cacheField name="Поле1" numFmtId="0" formula="'Товарооборот, руб' /SUM('Товарооборот, руб' )" databaseField="0"/>
+    <cacheField name="Поле2" numFmtId="0" formula="'Товарооборот, руб' /'Количество складов'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -3470,7 +3508,7 @@
     <n v="623971.5"/>
     <n v="565363.01599999995"/>
     <n v="64235.456923076919"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="368"/>
   </r>
@@ -3482,7 +3520,7 @@
     <n v="787101"/>
     <n v="707654.63099999994"/>
     <n v="112379.26539999999"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="409"/>
   </r>
@@ -3494,7 +3532,7 @@
     <n v="643944"/>
     <n v="640961.69299999997"/>
     <n v="61475.592307692306"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="390"/>
   </r>
@@ -3506,7 +3544,7 @@
     <n v="3395892"/>
     <n v="2740255.2110000001"/>
     <n v="294361.0811230769"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="1947"/>
   </r>
@@ -3518,7 +3556,7 @@
     <n v="2771116.5"/>
     <n v="2269371.4459999995"/>
     <n v="328803.84615384613"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="4"/>
     <n v="1704"/>
   </r>
@@ -3530,7 +3568,7 @@
     <n v="2882458.5"/>
     <n v="2290967.0389999999"/>
     <n v="246817.75113846152"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="1705"/>
   </r>
@@ -3542,7 +3580,7 @@
     <n v="2831019"/>
     <n v="2261296.2760000001"/>
     <n v="225845"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="1568"/>
   </r>
@@ -3554,7 +3592,7 @@
     <n v="2372310"/>
     <n v="1875929.923"/>
     <n v="280340.16570000001"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="7"/>
     <n v="1372"/>
   </r>
@@ -3566,7 +3604,7 @@
     <n v="2623480.5"/>
     <n v="2115481.9889999996"/>
     <n v="139204.6"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="8"/>
     <n v="1528"/>
   </r>
@@ -3578,7 +3616,7 @@
     <n v="2711247"/>
     <n v="2165434.9249999998"/>
     <n v="185484.16923076924"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="9"/>
     <n v="1534"/>
   </r>
@@ -3590,7 +3628,7 @@
     <n v="2970330"/>
     <n v="2395998.3769999999"/>
     <n v="259067.63954615386"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="10"/>
     <n v="1863"/>
   </r>
@@ -3602,7 +3640,7 @@
     <n v="3031254"/>
     <n v="2397503.37"/>
     <n v="232079.84750769229"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="11"/>
     <n v="1633"/>
   </r>
@@ -3614,7 +3652,7 @@
     <n v="2595778.5"/>
     <n v="2050101.9780000001"/>
     <n v="309760.33573076921"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="12"/>
     <n v="1516"/>
   </r>
@@ -3626,7 +3664,7 @@
     <n v="2744382"/>
     <n v="2257728.2139999997"/>
     <n v="301623.79230769229"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="13"/>
     <n v="1626"/>
   </r>
@@ -3638,7 +3676,7 @@
     <n v="2929330.5"/>
     <n v="2389543.5279999999"/>
     <n v="459604.90796153841"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="14"/>
     <n v="1767"/>
   </r>
@@ -3650,7 +3688,7 @@
     <n v="2906763"/>
     <n v="2323003.267"/>
     <n v="287619.52953846153"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="15"/>
     <n v="1604"/>
   </r>
@@ -3662,7 +3700,7 @@
     <n v="2411587.5"/>
     <n v="1931011.4870000002"/>
     <n v="149032.79178461537"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="16"/>
     <n v="1404"/>
   </r>
@@ -3674,7 +3712,7 @@
     <n v="2629782"/>
     <n v="2071714.7239999999"/>
     <n v="361201.8010384615"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="17"/>
     <n v="1554"/>
   </r>
@@ -3686,7 +3724,7 @@
     <n v="2434914"/>
     <n v="1925475.1139999998"/>
     <n v="247646.60936153846"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="18"/>
     <n v="1373"/>
   </r>
@@ -3698,7 +3736,7 @@
     <n v="2938623"/>
     <n v="2406562.0579999997"/>
     <n v="306098.4769230769"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="19"/>
     <n v="1632"/>
   </r>
@@ -3710,7 +3748,7 @@
     <n v="3628726.5"/>
     <n v="3056063.7349999999"/>
     <n v="223670.01693846151"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="20"/>
     <n v="2146"/>
   </r>
@@ -3722,7 +3760,7 @@
     <n v="3176580"/>
     <n v="2540760.0409999997"/>
     <n v="351098.05384615384"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="21"/>
     <n v="1914"/>
   </r>
@@ -3734,7 +3772,7 @@
     <n v="2817196.5"/>
     <n v="2244503.1999999997"/>
     <n v="203231.46096923074"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="22"/>
     <n v="1552"/>
   </r>
@@ -3746,7 +3784,7 @@
     <n v="3312967.5"/>
     <n v="2647972.3429999999"/>
     <n v="371661.65384615387"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="23"/>
     <n v="1846"/>
   </r>
@@ -3758,7 +3796,7 @@
     <n v="2645160"/>
     <n v="2133443.3049999997"/>
     <n v="355537.44449230767"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="24"/>
     <n v="1492"/>
   </r>
@@ -3770,7 +3808,7 @@
     <n v="2472213"/>
     <n v="2000889.9870000002"/>
     <n v="283287.86923076923"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="25"/>
     <n v="1405"/>
   </r>
@@ -3782,7 +3820,7 @@
     <n v="2924746.5"/>
     <n v="2399312.9350000001"/>
     <n v="282325.24615384615"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="26"/>
     <n v="1829"/>
   </r>
@@ -3794,7 +3832,7 @@
     <n v="3473895"/>
     <n v="2757933.63"/>
     <n v="112971.77692307692"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="27"/>
     <n v="2085"/>
   </r>
@@ -3806,7 +3844,7 @@
     <n v="3921784.5"/>
     <n v="3132604.841"/>
     <n v="242715.26253846151"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="28"/>
     <n v="2376"/>
   </r>
@@ -3818,7 +3856,7 @@
     <n v="2827773"/>
     <n v="2232253.034"/>
     <n v="343211.54262307688"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="29"/>
     <n v="1736"/>
   </r>
@@ -3830,7 +3868,7 @@
     <n v="7583758.5"/>
     <n v="5779076.7979999995"/>
     <n v="152384.93586153846"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="30"/>
     <n v="5177"/>
   </r>
@@ -3842,7 +3880,7 @@
     <n v="6815511"/>
     <n v="5426339.5819999995"/>
     <n v="195070.25003076921"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="31"/>
     <n v="5024"/>
   </r>
@@ -3854,7 +3892,7 @@
     <n v="6774946.5"/>
     <n v="5115462.4009999996"/>
     <n v="61149.515384615377"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="32"/>
     <n v="4843"/>
   </r>
@@ -3866,7 +3904,7 @@
     <n v="6264933"/>
     <n v="4726931.9569999995"/>
     <n v="294634.35530769231"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="33"/>
     <n v="4220"/>
   </r>
@@ -3878,7 +3916,7 @@
     <n v="6642249"/>
     <n v="4993791.9560000002"/>
     <n v="215294.37692307692"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="34"/>
     <n v="4596"/>
   </r>
@@ -3890,7 +3928,7 @@
     <n v="7180498.5"/>
     <n v="5432087.9790000003"/>
     <n v="172769.19230769231"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="35"/>
     <n v="4985"/>
   </r>
@@ -3902,7 +3940,7 @@
     <n v="5554192.5"/>
     <n v="4218316.0290000001"/>
     <n v="244262.12107692307"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="36"/>
     <n v="3823"/>
   </r>
@@ -3914,7 +3952,7 @@
     <n v="6676459.5"/>
     <n v="5083946.1689999998"/>
     <n v="141931.13193076922"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="37"/>
     <n v="5119"/>
   </r>
@@ -3926,7 +3964,7 @@
     <n v="8893024.5"/>
     <n v="6855177.2400000002"/>
     <n v="185180.38007692309"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="38"/>
     <n v="5564"/>
   </r>
@@ -3938,7 +3976,7 @@
     <n v="6398361"/>
     <n v="4793096.1439999994"/>
     <n v="181432.06769230767"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="39"/>
     <n v="4470"/>
   </r>
@@ -3950,7 +3988,7 @@
     <n v="6633847.5"/>
     <n v="5212858.58"/>
     <n v="120955.33846153846"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="40"/>
     <n v="4868"/>
   </r>
@@ -3962,7 +4000,7 @@
     <n v="7247575.5"/>
     <n v="5922822.6779999994"/>
     <n v="714758.2"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="41"/>
     <n v="5258"/>
   </r>
@@ -3974,7 +4012,7 @@
     <n v="6921316.5"/>
     <n v="5290094.2719999999"/>
     <n v="386033.17544615385"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="42"/>
     <n v="4800"/>
   </r>
@@ -3986,7 +4024,7 @@
     <n v="7163644.5"/>
     <n v="5366333.7130000005"/>
     <n v="145122.77781538462"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="43"/>
     <n v="5096"/>
   </r>
@@ -3998,7 +4036,7 @@
     <n v="6993952.5"/>
     <n v="5288518.7799999993"/>
     <n v="227969.01538461537"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="44"/>
     <n v="4853"/>
   </r>
@@ -4010,7 +4048,7 @@
     <n v="7013670"/>
     <n v="5282661.8549999995"/>
     <n v="161473.07692307691"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="45"/>
     <n v="4762"/>
   </r>
@@ -4022,7 +4060,7 @@
     <n v="6168657"/>
     <n v="4695811.3490000004"/>
     <n v="157384.1788307692"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="46"/>
     <n v="4348"/>
   </r>
@@ -4034,7 +4072,7 @@
     <n v="8089143"/>
     <n v="6673236.3720000004"/>
     <n v="127223.84583076923"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="47"/>
     <n v="5801"/>
   </r>
@@ -4046,7 +4084,7 @@
     <n v="6645603"/>
     <n v="5032216.1889999993"/>
     <n v="100883.95384615385"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="48"/>
     <n v="4841"/>
   </r>
@@ -4058,7 +4096,7 @@
     <n v="7023727.5"/>
     <n v="5349682.4849999994"/>
     <n v="31578.207692307689"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="49"/>
     <n v="4737"/>
   </r>
@@ -4070,7 +4108,7 @@
     <n v="7483194"/>
     <n v="5637882.125"/>
     <n v="126673.26923076922"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="50"/>
     <n v="5093"/>
   </r>
@@ -4082,7 +4120,7 @@
     <n v="6293776.5"/>
     <n v="4773839.9380000001"/>
     <n v="201777.4038153846"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="51"/>
     <n v="4266"/>
   </r>
@@ -4094,7 +4132,7 @@
     <n v="6591883.5"/>
     <n v="5001227.6710000001"/>
     <n v="184167.76355384616"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="52"/>
     <n v="4527"/>
   </r>
@@ -4106,7 +4144,7 @@
     <n v="6451032"/>
     <n v="5048965.7960000001"/>
     <n v="94608.146153846144"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="53"/>
     <n v="4683"/>
   </r>
@@ -4118,7 +4156,7 @@
     <n v="1130506.5"/>
     <n v="1024403.9859999999"/>
     <n v="72626.813907692311"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="54"/>
     <n v="672"/>
   </r>
@@ -4130,7 +4168,7 @@
     <n v="938764.5"/>
     <n v="820018.375"/>
     <n v="77816.215384615381"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="55"/>
     <n v="568"/>
   </r>
@@ -4142,7 +4180,7 @@
     <n v="843727.5"/>
     <n v="729677.51899999997"/>
     <n v="140731.96461538461"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="56"/>
     <n v="513"/>
   </r>
@@ -4154,7 +4192,7 @@
     <n v="1046400"/>
     <n v="937716.15799999994"/>
     <n v="61387.776923076919"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="57"/>
     <n v="559"/>
   </r>
@@ -4166,7 +4204,7 @@
     <n v="728890.5"/>
     <n v="644150.51899999997"/>
     <n v="98026.490369230756"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="58"/>
     <n v="396"/>
   </r>
@@ -4178,7 +4216,7 @@
     <n v="797919"/>
     <n v="783753.29499999993"/>
     <n v="58214.93076923077"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="59"/>
     <n v="433"/>
   </r>
@@ -4190,7 +4228,7 @@
     <n v="617881.5"/>
     <n v="575518.06799999997"/>
     <n v="119723.42363076922"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="60"/>
     <n v="341"/>
   </r>
@@ -4202,7 +4240,7 @@
     <n v="983109"/>
     <n v="825345.05300000007"/>
     <n v="109486.33076923077"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="61"/>
     <n v="601"/>
   </r>
@@ -4214,7 +4252,7 @@
     <n v="891139.5"/>
     <n v="829782.37600000005"/>
     <n v="121759.66210769229"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="62"/>
     <n v="472"/>
   </r>
@@ -4226,7 +4264,7 @@
     <n v="732964.5"/>
     <n v="634517.67299999995"/>
     <n v="136157.98361538461"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="63"/>
     <n v="448"/>
   </r>
@@ -4238,7 +4276,7 @@
     <n v="935523"/>
     <n v="808524.505"/>
     <n v="94344.953846153847"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="64"/>
     <n v="591"/>
   </r>
@@ -4250,7 +4288,7 @@
     <n v="1037247"/>
     <n v="910480.6449999999"/>
     <n v="64430.964123076919"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="65"/>
     <n v="654"/>
   </r>
@@ -4262,7 +4300,7 @@
     <n v="793320"/>
     <n v="718019.27600000007"/>
     <n v="92027.36809230769"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="66"/>
     <n v="437"/>
   </r>
@@ -4274,7 +4312,7 @@
     <n v="869983.5"/>
     <n v="896773.32399999991"/>
     <n v="51681.038461538461"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="67"/>
     <n v="506"/>
   </r>
@@ -4286,7 +4324,7 @@
     <n v="865714.5"/>
     <n v="799644.75899999996"/>
     <n v="111860.49372307691"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="68"/>
     <n v="530"/>
   </r>
@@ -4298,7 +4336,7 @@
     <n v="7512646.5"/>
     <n v="5979210.0970000001"/>
     <n v="47580.146153846152"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="69"/>
     <n v="5367"/>
   </r>
@@ -4310,7 +4348,7 @@
     <n v="637881"/>
     <n v="575840.67700000003"/>
     <n v="73920.584615384607"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="70"/>
     <n v="333"/>
   </r>
@@ -4322,7 +4360,7 @@
     <n v="9164707.5"/>
     <n v="7329868.665"/>
     <n v="137418.15930769229"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="71"/>
     <n v="6264"/>
   </r>
@@ -4334,7 +4372,7 @@
     <n v="696832.5"/>
     <n v="616683.38099999994"/>
     <n v="99623.130769230775"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="72"/>
     <n v="390"/>
   </r>
@@ -4346,7 +4384,7 @@
     <n v="1241383.5"/>
     <n v="1069622.507"/>
     <n v="74049.523076923084"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="73"/>
     <n v="734"/>
   </r>
@@ -4358,7 +4396,7 @@
     <n v="6641569.5"/>
     <n v="5084073.5159999998"/>
     <n v="142499.01538461537"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="74"/>
     <n v="4969"/>
   </r>
@@ -4370,7 +4408,7 @@
     <n v="1030440"/>
     <n v="871047.598"/>
     <n v="85172.084615384621"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="75"/>
     <n v="642"/>
   </r>
@@ -4382,7 +4420,7 @@
     <n v="716196"/>
     <n v="663415.49699999997"/>
     <n v="24274.438461538462"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="76"/>
     <n v="376"/>
   </r>
@@ -4394,7 +4432,7 @@
     <n v="1004788.5"/>
     <n v="896111.80299999996"/>
     <n v="99729.923076923063"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="77"/>
     <n v="556"/>
   </r>
@@ -4406,7 +4444,7 @@
     <n v="959703"/>
     <n v="861486.47499999998"/>
     <n v="87212.130769230775"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="78"/>
     <n v="547"/>
   </r>
@@ -4418,7 +4456,7 @@
     <n v="863754"/>
     <n v="758428.73499999999"/>
     <n v="86710.804507692301"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="79"/>
     <n v="486"/>
   </r>
@@ -4430,7 +4468,7 @@
     <n v="828984"/>
     <n v="702631.81099999999"/>
     <n v="82264.567169230766"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="80"/>
     <n v="557"/>
   </r>
@@ -4442,7 +4480,7 @@
     <n v="1045515"/>
     <n v="896490.07"/>
     <n v="49463.982984615388"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="81"/>
     <n v="655"/>
   </r>
@@ -4454,7 +4492,7 @@
     <n v="1260483"/>
     <n v="1048221.1390000001"/>
     <n v="86278.176699999996"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="82"/>
     <n v="763"/>
   </r>
@@ -4466,7 +4504,7 @@
     <n v="1114552.5"/>
     <n v="939269.56700000004"/>
     <n v="74269.06047692307"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="83"/>
     <n v="697"/>
   </r>
@@ -4478,7 +4516,7 @@
     <n v="3222517.5"/>
     <n v="2633868.1740000001"/>
     <n v="150484.18215384614"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="84"/>
     <n v="1844"/>
   </r>
@@ -4490,7 +4528,7 @@
     <n v="2865337.5"/>
     <n v="2368028.6850000001"/>
     <n v="225452.89078461539"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="26"/>
     <n v="1799"/>
   </r>
@@ -4502,7 +4540,7 @@
     <n v="2694289.5"/>
     <n v="2183502.7290000003"/>
     <n v="153558.02257692307"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="85"/>
     <n v="1660"/>
   </r>
@@ -4514,7 +4552,7 @@
     <n v="2902167"/>
     <n v="2319890.3459999999"/>
     <n v="194963.39216923076"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="86"/>
     <n v="1635"/>
   </r>
@@ -4526,7 +4564,7 @@
     <n v="2450968.5"/>
     <n v="1980824.9889999998"/>
     <n v="188174.3243923077"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="87"/>
     <n v="1403"/>
   </r>
@@ -4538,7 +4576,7 @@
     <n v="2397588"/>
     <n v="1937222.0459999999"/>
     <n v="159472.57584615384"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="88"/>
     <n v="1369"/>
   </r>
@@ -4550,7 +4588,7 @@
     <n v="1799230.5"/>
     <n v="1457108.1479999998"/>
     <n v="183829.81409230767"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="89"/>
     <n v="1048"/>
   </r>
@@ -4562,7 +4600,7 @@
     <n v="2907411"/>
     <n v="2288433.4950000001"/>
     <n v="193538.8704076923"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="90"/>
     <n v="1790"/>
   </r>
@@ -4574,7 +4612,7 @@
     <n v="2374356"/>
     <n v="1915101.034"/>
     <n v="277477.31932307692"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="91"/>
     <n v="1291"/>
   </r>
@@ -4586,7 +4624,7 @@
     <n v="2370432"/>
     <n v="1847737.8370000001"/>
     <n v="141864.00329999998"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="92"/>
     <n v="1460"/>
   </r>
@@ -4598,7 +4636,7 @@
     <n v="2853181.5"/>
     <n v="2349459.5"/>
     <n v="187617.05315384615"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="93"/>
     <n v="1724"/>
   </r>
@@ -4610,7 +4648,7 @@
     <n v="2692230"/>
     <n v="2195766.1209999998"/>
     <n v="202002.14775384613"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="94"/>
     <n v="1690"/>
   </r>
@@ -4622,7 +4660,7 @@
     <n v="2079900"/>
     <n v="1657688.8529999999"/>
     <n v="178454.88537692308"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="95"/>
     <n v="1245"/>
   </r>
@@ -4634,7 +4672,7 @@
     <n v="2136817.5"/>
     <n v="1701780.4779999999"/>
     <n v="141999.40078461537"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="96"/>
     <n v="1265"/>
   </r>
@@ -4646,7 +4684,7 @@
     <n v="2373337.5"/>
     <n v="1886244.7409999999"/>
     <n v="207105.15935384613"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="97"/>
     <n v="1444"/>
   </r>
@@ -4658,7 +4696,7 @@
     <n v="2170309.5"/>
     <n v="1735984.6140000001"/>
     <n v="170377.85753846151"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="98"/>
     <n v="1234"/>
   </r>
@@ -4670,7 +4708,7 @@
     <n v="2232519"/>
     <n v="1781999.058"/>
     <n v="359577.90600769228"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="99"/>
     <n v="1323"/>
   </r>
@@ -4682,7 +4720,7 @@
     <n v="3385372.5"/>
     <n v="2831498.2739999997"/>
     <n v="146460.30097692306"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="100"/>
     <n v="1993"/>
   </r>
@@ -4694,7 +4732,7 @@
     <n v="2865727.5"/>
     <n v="2288224.429"/>
     <n v="167381.28187692308"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="101"/>
     <n v="1791"/>
   </r>
@@ -4706,7 +4744,7 @@
     <n v="2267664"/>
     <n v="1801564.392"/>
     <n v="97090.63692307692"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="99"/>
     <n v="1322"/>
   </r>
@@ -4718,7 +4756,7 @@
     <n v="2862298.5"/>
     <n v="2267667.5189999999"/>
     <n v="169650.86923076923"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="102"/>
     <n v="1649"/>
   </r>
@@ -4730,7 +4768,7 @@
     <n v="2271454.5"/>
     <n v="1811009.8979999998"/>
     <n v="151659.17713846153"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="103"/>
     <n v="1340"/>
   </r>
@@ -4742,7 +4780,7 @@
     <n v="2350672.5"/>
     <n v="1875294.65"/>
     <n v="221739.45623076922"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="104"/>
     <n v="1338"/>
   </r>
@@ -4754,7 +4792,7 @@
     <n v="2915533.5"/>
     <n v="2431800.3939999999"/>
     <n v="155421.87692307692"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="105"/>
     <n v="1803"/>
   </r>
@@ -4766,7 +4804,7 @@
     <n v="2991999"/>
     <n v="2374135.6799999997"/>
     <n v="106116.64615384616"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="106"/>
     <n v="1826"/>
   </r>
@@ -4778,7 +4816,7 @@
     <n v="3654166.5"/>
     <n v="2919786.2949999999"/>
     <n v="182639.11723076922"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="107"/>
     <n v="2178"/>
   </r>
@@ -4790,7 +4828,7 @@
     <n v="3004213.5"/>
     <n v="2389834.3129999996"/>
     <n v="174780.66518461538"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="108"/>
     <n v="1848"/>
   </r>
@@ -4802,7 +4840,7 @@
     <n v="32235864"/>
     <n v="23691368.555"/>
     <n v="595097.15929230768"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="109"/>
     <n v="16631"/>
   </r>
@@ -4814,7 +4852,7 @@
     <n v="27093624"/>
     <n v="19768696.5"/>
     <n v="759335.80469230772"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="110"/>
     <n v="15102"/>
   </r>
@@ -4826,7 +4864,7 @@
     <n v="26659930.5"/>
     <n v="19515982.116"/>
     <n v="551393.4769230769"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="111"/>
     <n v="14685"/>
   </r>
@@ -4838,7 +4876,7 @@
     <n v="29768199"/>
     <n v="21483666.921"/>
     <n v="549316.95015384618"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="112"/>
     <n v="15169"/>
   </r>
@@ -4850,7 +4888,7 @@
     <n v="29357940"/>
     <n v="21174604.830000002"/>
     <n v="988153.40803076921"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="113"/>
     <n v="15310"/>
   </r>
@@ -4862,7 +4900,7 @@
     <n v="30869287.5"/>
     <n v="22717731.617999997"/>
     <n v="661329.17833846144"/>
-    <n v="128"/>
+    <x v="9"/>
     <x v="114"/>
     <n v="16077"/>
   </r>
@@ -4874,7 +4912,7 @@
     <n v="24342016.5"/>
     <n v="17790852.443999998"/>
     <n v="634118.86923076923"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="115"/>
     <n v="12920"/>
   </r>
@@ -4886,7 +4924,7 @@
     <n v="27872617.898850001"/>
     <n v="20223763.805"/>
     <n v="645572.57826153841"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="116"/>
     <n v="15355"/>
   </r>
@@ -4898,7 +4936,7 @@
     <n v="31053316.5"/>
     <n v="22737807.546999998"/>
     <n v="896375.16923076916"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="117"/>
     <n v="15570"/>
   </r>
@@ -4910,7 +4948,7 @@
     <n v="29042520"/>
     <n v="20980503.504999999"/>
     <n v="776209.03169999993"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="118"/>
     <n v="15322"/>
   </r>
@@ -4922,7 +4960,7 @@
     <n v="27852900"/>
     <n v="20824687.999000002"/>
     <n v="822353.43936153851"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="119"/>
     <n v="15223"/>
   </r>
@@ -4934,7 +4972,7 @@
     <n v="29368771.617449999"/>
     <n v="21545834.136"/>
     <n v="1052145.9026769232"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="120"/>
     <n v="15919"/>
   </r>
@@ -4946,7 +4984,7 @@
     <n v="27278441.145"/>
     <n v="19610637.316999998"/>
     <n v="919330.0461538462"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="121"/>
     <n v="14501"/>
   </r>
@@ -4958,7 +4996,7 @@
     <n v="29159032.5"/>
     <n v="21437602.310000002"/>
     <n v="637711.59372307686"/>
-    <n v="128"/>
+    <x v="9"/>
     <x v="122"/>
     <n v="15320"/>
   </r>
@@ -4970,7 +5008,7 @@
     <n v="26467453.5"/>
     <n v="19153152.526999999"/>
     <n v="636197.23340769229"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="123"/>
     <n v="14315"/>
   </r>
@@ -4982,7 +5020,7 @@
     <n v="28427001"/>
     <n v="20563887.598999999"/>
     <n v="779849.36538461538"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="124"/>
     <n v="14624"/>
   </r>
@@ -4994,7 +5032,7 @@
     <n v="28770810.105599999"/>
     <n v="20810852.736000001"/>
     <n v="790162.57692307688"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="125"/>
     <n v="15197"/>
   </r>
@@ -5006,7 +5044,7 @@
     <n v="35103926.711549997"/>
     <n v="26357141.036999997"/>
     <n v="601482.07692307688"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="126"/>
     <n v="18325"/>
   </r>
@@ -5018,7 +5056,7 @@
     <n v="27165913.5"/>
     <n v="19659432.722999997"/>
     <n v="698314.9846153846"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="127"/>
     <n v="14753"/>
   </r>
@@ -5030,7 +5068,7 @@
     <n v="32418879"/>
     <n v="23595019.660999998"/>
     <n v="265444.33165384614"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="128"/>
     <n v="16631"/>
   </r>
@@ -5042,7 +5080,7 @@
     <n v="29536176.10605"/>
     <n v="21276357.105999999"/>
     <n v="541588.89356153843"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="129"/>
     <n v="15285"/>
   </r>
@@ -5054,7 +5092,7 @@
     <n v="38091556.5"/>
     <n v="28012065.349999998"/>
     <n v="725212.99592307687"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="130"/>
     <n v="18857"/>
   </r>
@@ -5066,7 +5104,7 @@
     <n v="25325271"/>
     <n v="18582990.427999999"/>
     <n v="865201.87857692305"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="131"/>
     <n v="13512"/>
   </r>
@@ -5078,7 +5116,7 @@
     <n v="28188534"/>
     <n v="21369401.386999998"/>
     <n v="607679.34615384613"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="132"/>
     <n v="15345"/>
   </r>
@@ -5090,7 +5128,7 @@
     <n v="42323631"/>
     <n v="31033323.692999996"/>
     <n v="571764.09076923074"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="133"/>
     <n v="20635"/>
   </r>
@@ -5102,7 +5140,7 @@
     <n v="37023243"/>
     <n v="26762183.377"/>
     <n v="650375.76849230775"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="134"/>
     <n v="19338"/>
   </r>
@@ -5114,7 +5152,7 @@
     <n v="36834567"/>
     <n v="26914635.671"/>
     <n v="566638.92575384618"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="135"/>
     <n v="18721"/>
   </r>
@@ -5126,7 +5164,7 @@
     <n v="38693427"/>
     <n v="27863789.055"/>
     <n v="582268.72615384613"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="136"/>
     <n v="18617"/>
   </r>
@@ -5138,7 +5176,7 @@
     <n v="38406954"/>
     <n v="27588003.988000002"/>
     <n v="1078421.345076923"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="137"/>
     <n v="18964"/>
   </r>
@@ -5150,7 +5188,7 @@
     <n v="41559384"/>
     <n v="30476170.214999996"/>
     <n v="642893.56656923075"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="138"/>
     <n v="20160"/>
   </r>
@@ -5162,7 +5200,7 @@
     <n v="31843737"/>
     <n v="23119777.98"/>
     <n v="657754.31880000001"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="139"/>
     <n v="15601"/>
   </r>
@@ -5174,7 +5212,7 @@
     <n v="38365960.5"/>
     <n v="27592063.502999999"/>
     <n v="589339.03384615376"/>
-    <n v="124"/>
+    <x v="11"/>
     <x v="140"/>
     <n v="19673"/>
   </r>
@@ -5186,7 +5224,7 @@
     <n v="40077193.5"/>
     <n v="29141359.438000001"/>
     <n v="848425.41843846149"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="141"/>
     <n v="18845"/>
   </r>
@@ -5198,7 +5236,7 @@
     <n v="39578577"/>
     <n v="28453665.594999999"/>
     <n v="535419.89796923078"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="142"/>
     <n v="19651"/>
   </r>
@@ -5210,7 +5248,7 @@
     <n v="37902156.57"/>
     <n v="28083686.689999998"/>
     <n v="713697.60769230768"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="143"/>
     <n v="19358"/>
   </r>
@@ -5222,7 +5260,7 @@
     <n v="39639309"/>
     <n v="28736966.634"/>
     <n v="997757.75384615385"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="144"/>
     <n v="20155"/>
   </r>
@@ -5234,7 +5272,7 @@
     <n v="35671734"/>
     <n v="25644478.342"/>
     <n v="919576.96055384621"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="145"/>
     <n v="17541"/>
   </r>
@@ -5246,7 +5284,7 @@
     <n v="39918028.5"/>
     <n v="29154014.884"/>
     <n v="611904.23352307687"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="146"/>
     <n v="19479"/>
   </r>
@@ -5258,7 +5296,7 @@
     <n v="37197115.5"/>
     <n v="26793668.158999998"/>
     <n v="582815.36153846153"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="147"/>
     <n v="18573"/>
   </r>
@@ -5270,7 +5308,7 @@
     <n v="29327766"/>
     <n v="22491044.692999996"/>
     <n v="283716.73846153845"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="148"/>
     <n v="16052"/>
   </r>
@@ -5282,7 +5320,7 @@
     <n v="36631999.5"/>
     <n v="26408496.047999997"/>
     <n v="820373.56815384608"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="149"/>
     <n v="17420"/>
   </r>
@@ -5294,7 +5332,7 @@
     <n v="35724493.5"/>
     <n v="27535617.434"/>
     <n v="541116.6988461538"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="150"/>
     <n v="18711"/>
   </r>
@@ -5306,7 +5344,7 @@
     <n v="38092344"/>
     <n v="27467616.702999998"/>
     <n v="942702.9"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="151"/>
     <n v="18647"/>
   </r>
@@ -5318,7 +5356,7 @@
     <n v="46408080"/>
     <n v="34793888.932999998"/>
     <n v="595793.09065384604"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="152"/>
     <n v="22609"/>
   </r>
@@ -5330,7 +5368,7 @@
     <n v="28151004.75"/>
     <n v="20806418.796"/>
     <n v="591565.35384615383"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="153"/>
     <n v="15289"/>
   </r>
@@ -5342,7 +5380,7 @@
     <n v="36883428"/>
     <n v="26438356.802999999"/>
     <n v="742420.26923076913"/>
-    <n v="124"/>
+    <x v="11"/>
     <x v="154"/>
     <n v="18890"/>
   </r>
@@ -5354,7 +5392,7 @@
     <n v="43028734.5"/>
     <n v="31156525.939999998"/>
     <n v="343786.08461538458"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="155"/>
     <n v="20625"/>
   </r>
@@ -5366,7 +5404,7 @@
     <n v="39010875"/>
     <n v="28090230.958999999"/>
     <n v="532663.16153846146"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="156"/>
     <n v="18884"/>
   </r>
@@ -5378,7 +5416,7 @@
     <n v="49123180.5"/>
     <n v="36012087.989"/>
     <n v="700442.11537692312"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="157"/>
     <n v="22641"/>
   </r>
@@ -5390,7 +5428,7 @@
     <n v="33763989"/>
     <n v="24610757.489"/>
     <n v="1101833.4472307691"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="158"/>
     <n v="16675"/>
   </r>
@@ -5402,7 +5440,7 @@
     <n v="38191381.5"/>
     <n v="28822960.470999997"/>
     <n v="574198.11538461538"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="159"/>
     <n v="19556"/>
   </r>
@@ -5414,7 +5452,7 @@
     <n v="6652179"/>
     <n v="5305378.9040000001"/>
     <n v="156413.8362153846"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="160"/>
     <n v="4867"/>
   </r>
@@ -5426,7 +5464,7 @@
     <n v="6173463"/>
     <n v="4915101.7949999999"/>
     <n v="253686.7171923077"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="161"/>
     <n v="4716"/>
   </r>
@@ -5438,7 +5476,7 @@
     <n v="5952802.5"/>
     <n v="4711294.2009999994"/>
     <n v="125880.90000000001"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="162"/>
     <n v="4554"/>
   </r>
@@ -5450,7 +5488,7 @@
     <n v="7253427"/>
     <n v="5531366.3810000001"/>
     <n v="221053.87967692307"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="163"/>
     <n v="4959"/>
   </r>
@@ -5462,7 +5500,7 @@
     <n v="5561452.5"/>
     <n v="4257859.3720000004"/>
     <n v="337872.83273076924"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="164"/>
     <n v="4149"/>
   </r>
@@ -5474,7 +5512,7 @@
     <n v="6454458"/>
     <n v="4968152.9469999997"/>
     <n v="118941.29398461539"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="165"/>
     <n v="4561"/>
   </r>
@@ -5486,7 +5524,7 @@
     <n v="4118251.5"/>
     <n v="3133704.9279999998"/>
     <n v="179531.89196153847"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="166"/>
     <n v="3147"/>
   </r>
@@ -5498,7 +5536,7 @@
     <n v="5864989.5"/>
     <n v="4506085.4840000002"/>
     <n v="167003.69436153845"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="167"/>
     <n v="4424"/>
   </r>
@@ -5510,7 +5548,7 @@
     <n v="7032225"/>
     <n v="5546127.1919999998"/>
     <n v="196859.98644615384"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="168"/>
     <n v="4916"/>
   </r>
@@ -5522,7 +5560,7 @@
     <n v="5523145.5"/>
     <n v="4230689.2069999995"/>
     <n v="183154.05167692306"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="169"/>
     <n v="4088"/>
   </r>
@@ -5534,7 +5572,7 @@
     <n v="5864085"/>
     <n v="4847142.9859999996"/>
     <n v="142998.2095"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="170"/>
     <n v="4452"/>
   </r>
@@ -5546,7 +5584,7 @@
     <n v="7121946"/>
     <n v="6279205.8499999996"/>
     <n v="279127.27602307691"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="171"/>
     <n v="5384"/>
   </r>
@@ -5558,7 +5596,7 @@
     <n v="5770539"/>
     <n v="4433831.2509999992"/>
     <n v="232587.42287692308"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="172"/>
     <n v="4206"/>
   </r>
@@ -5570,7 +5608,7 @@
     <n v="6288246"/>
     <n v="4798265.1129999999"/>
     <n v="123081.63515384615"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="173"/>
     <n v="4560"/>
   </r>
@@ -5582,7 +5620,7 @@
     <n v="6333828"/>
     <n v="4890619.2620000001"/>
     <n v="181964.68769230769"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="174"/>
     <n v="4583"/>
   </r>
@@ -5594,7 +5632,7 @@
     <n v="39380178"/>
     <n v="29726473.223999996"/>
     <n v="305744.98843076918"/>
-    <n v="124"/>
+    <x v="11"/>
     <x v="175"/>
     <n v="19869"/>
   </r>
@@ -5606,7 +5644,7 @@
     <n v="6221320.5"/>
     <n v="4762185.0609999998"/>
     <n v="172821.83076923076"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="176"/>
     <n v="4370"/>
   </r>
@@ -5618,7 +5656,7 @@
     <n v="46370904"/>
     <n v="35190775.285000004"/>
     <n v="552625.80000000005"/>
-    <n v="124"/>
+    <x v="11"/>
     <x v="177"/>
     <n v="22469"/>
   </r>
@@ -5630,7 +5668,7 @@
     <n v="5454121.5"/>
     <n v="4155234.554"/>
     <n v="234787.55649230769"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="178"/>
     <n v="4025"/>
   </r>
@@ -5642,7 +5680,7 @@
     <n v="7173117"/>
     <n v="6068194.523"/>
     <n v="139983.69019999998"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="179"/>
     <n v="5212"/>
   </r>
@@ -5654,7 +5692,7 @@
     <n v="37947688.5"/>
     <n v="27829971.363000002"/>
     <n v="628647.33076923073"/>
-    <n v="124"/>
+    <x v="11"/>
     <x v="180"/>
     <n v="19342"/>
   </r>
@@ -5666,7 +5704,7 @@
     <n v="5704650"/>
     <n v="4375924.2359999996"/>
     <n v="135246.95929230767"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="181"/>
     <n v="4274"/>
   </r>
@@ -5678,7 +5716,7 @@
     <n v="6819594"/>
     <n v="5260171.5349999992"/>
     <n v="70931.816676923074"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="182"/>
     <n v="4715"/>
   </r>
@@ -5690,7 +5728,7 @@
     <n v="7726069.5"/>
     <n v="5922893.7209999999"/>
     <n v="161614.12454615385"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="183"/>
     <n v="5277"/>
   </r>
@@ -5702,7 +5740,7 @@
     <n v="5365708.5"/>
     <n v="4091691.3249999997"/>
     <n v="232169.67161538458"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="184"/>
     <n v="3867"/>
   </r>
@@ -5714,7 +5752,7 @@
     <n v="6175837.5"/>
     <n v="4747959.6140000001"/>
     <n v="157793.27424615383"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="185"/>
     <n v="4426"/>
   </r>
@@ -5726,7 +5764,7 @@
     <n v="6098236.5"/>
     <n v="5042435.841"/>
     <n v="156805.83461538461"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="186"/>
     <n v="4562"/>
   </r>
@@ -5738,7 +5776,7 @@
     <n v="4025148"/>
     <n v="3259483.304"/>
     <n v="145385.33866923075"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="187"/>
     <n v="2213"/>
   </r>
@@ -5750,7 +5788,7 @@
     <n v="3552937.5"/>
     <n v="2795344.17"/>
     <n v="245048.26007692309"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="188"/>
     <n v="2053"/>
   </r>
@@ -5762,7 +5800,7 @@
     <n v="3191155.5"/>
     <n v="2528990.5839999998"/>
     <n v="292821.22307692311"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="189"/>
     <n v="1883"/>
   </r>
@@ -5774,7 +5812,7 @@
     <n v="3084892.5"/>
     <n v="2384575.3629999999"/>
     <n v="184346.05176923078"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="190"/>
     <n v="1709"/>
   </r>
@@ -5786,7 +5824,7 @@
     <n v="2817853.5"/>
     <n v="2169377.2250000001"/>
     <n v="215836.18461538458"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="191"/>
     <n v="1638"/>
   </r>
@@ -5798,7 +5836,7 @@
     <n v="2627595"/>
     <n v="2033299.2799999998"/>
     <n v="202681.39594615382"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="192"/>
     <n v="1516"/>
   </r>
@@ -5810,7 +5848,7 @@
     <n v="2470465.5"/>
     <n v="1911613.1440000001"/>
     <n v="187667.93086153845"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="193"/>
     <n v="1457"/>
   </r>
@@ -5822,7 +5860,7 @@
     <n v="3700311"/>
     <n v="2861069.8419999997"/>
     <n v="170303.62015384613"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="194"/>
     <n v="2215"/>
   </r>
@@ -5834,7 +5872,7 @@
     <n v="4293241.5"/>
     <n v="3389723.9589999998"/>
     <n v="329717.03827692306"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="195"/>
     <n v="2221"/>
   </r>
@@ -5846,7 +5884,7 @@
     <n v="3080614.5"/>
     <n v="2363955.7909999997"/>
     <n v="200042.36143846155"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="196"/>
     <n v="1745"/>
   </r>
@@ -5858,7 +5896,7 @@
     <n v="3810394.5"/>
     <n v="3046897.7940000002"/>
     <n v="144594.40769230769"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="197"/>
     <n v="2126"/>
   </r>
@@ -5870,7 +5908,7 @@
     <n v="3918987"/>
     <n v="3141103.9569999999"/>
     <n v="205451.17950769232"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="198"/>
     <n v="2202"/>
   </r>
@@ -5882,7 +5920,7 @@
     <n v="2648688"/>
     <n v="2021918.12"/>
     <n v="219587.1531846154"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="199"/>
     <n v="1596"/>
   </r>
@@ -5894,7 +5932,7 @@
     <n v="2863600.5"/>
     <n v="2246478.6170000001"/>
     <n v="140503.93076923076"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="200"/>
     <n v="1681"/>
   </r>
@@ -5906,7 +5944,7 @@
     <n v="3288069"/>
     <n v="2580984.0299999998"/>
     <n v="208081.82515384615"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="201"/>
     <n v="1876"/>
   </r>
@@ -5918,7 +5956,7 @@
     <n v="6500848.5"/>
     <n v="5172874.4439999992"/>
     <n v="60556.251538461533"/>
-    <n v="37"/>
+    <x v="13"/>
     <x v="202"/>
     <n v="4848"/>
   </r>
@@ -5930,7 +5968,7 @@
     <n v="2720002.5"/>
     <n v="2102974.0010000002"/>
     <n v="175338.6411076923"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="203"/>
     <n v="1561"/>
   </r>
@@ -5942,7 +5980,7 @@
     <n v="9098386.5"/>
     <n v="7354572.0109999999"/>
     <n v="193869.59292307691"/>
-    <n v="37"/>
+    <x v="13"/>
     <x v="204"/>
     <n v="6122"/>
   </r>
@@ -5954,7 +5992,7 @@
     <n v="2738127"/>
     <n v="2094375.01"/>
     <n v="174068.47879999998"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="205"/>
     <n v="1570"/>
   </r>
@@ -5966,7 +6004,7 @@
     <n v="3883215"/>
     <n v="3151914.3419999997"/>
     <n v="162279.9956153846"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="206"/>
     <n v="2226"/>
   </r>
@@ -5978,7 +6016,7 @@
     <n v="6101931"/>
     <n v="4743581.9779999992"/>
     <n v="226018.55243846151"/>
-    <n v="37"/>
+    <x v="13"/>
     <x v="207"/>
     <n v="4475"/>
   </r>
@@ -5990,7 +6028,7 @@
     <n v="3561655.5"/>
     <n v="2769041.2770000002"/>
     <n v="180495.52483076922"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="208"/>
     <n v="2142"/>
   </r>
@@ -6002,7 +6040,7 @@
     <n v="2853310.5"/>
     <n v="2211817.6569999997"/>
     <n v="63441.684615384613"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="209"/>
     <n v="1586"/>
   </r>
@@ -6014,7 +6052,7 @@
     <n v="3549097.5"/>
     <n v="2745646.9479999999"/>
     <n v="258287.05384615384"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="210"/>
     <n v="1921"/>
   </r>
@@ -6026,7 +6064,7 @@
     <n v="3201358.5"/>
     <n v="2481896.3339999998"/>
     <n v="156377.12456923077"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="211"/>
     <n v="1755"/>
   </r>
@@ -6038,7 +6076,7 @@
     <n v="2934504"/>
     <n v="2253872.1379999998"/>
     <n v="160756.50769230767"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="212"/>
     <n v="1695"/>
   </r>
@@ -6050,7 +6088,7 @@
     <n v="3449302.5"/>
     <n v="2798056.2479999997"/>
     <n v="174707.83838461537"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="213"/>
     <n v="2061"/>
   </r>
@@ -6062,7 +6100,7 @@
     <n v="3994153.5"/>
     <n v="3105853.9129999997"/>
     <n v="53605.712153846151"/>
-    <n v="23"/>
+    <x v="14"/>
     <x v="214"/>
     <n v="2295"/>
   </r>
@@ -6074,7 +6112,7 @@
     <n v="4456441.5"/>
     <n v="3473157.5449999999"/>
     <n v="205639.55141538463"/>
-    <n v="22"/>
+    <x v="15"/>
     <x v="215"/>
     <n v="2539"/>
   </r>
@@ -6086,7 +6124,7 @@
     <n v="3893680.5"/>
     <n v="3004872.3489999999"/>
     <n v="190911.88401538462"/>
-    <n v="22"/>
+    <x v="15"/>
     <x v="216"/>
     <n v="2239"/>
   </r>
@@ -6098,7 +6136,7 @@
     <n v="1601425.5"/>
     <n v="1268422.666"/>
     <n v="189642.93076923076"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="217"/>
     <n v="992"/>
   </r>
@@ -6110,7 +6148,7 @@
     <n v="1364847"/>
     <n v="1137103.412"/>
     <n v="258642.5153846154"/>
-    <n v="16"/>
+    <x v="16"/>
     <x v="218"/>
     <n v="900"/>
   </r>
@@ -6122,7 +6160,7 @@
     <n v="1377577.5"/>
     <n v="1086345.0159999998"/>
     <n v="224718.40769230769"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="219"/>
     <n v="856"/>
   </r>
@@ -6134,7 +6172,7 @@
     <n v="1222932"/>
     <n v="974409.1449999999"/>
     <n v="299208.26923076925"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="220"/>
     <n v="740"/>
   </r>
@@ -6146,7 +6184,7 @@
     <n v="1085211"/>
     <n v="874153.34499999997"/>
     <n v="243709.48269230771"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="221"/>
     <n v="647"/>
   </r>
@@ -6158,7 +6196,7 @@
     <n v="1115992.5"/>
     <n v="928035.23599999992"/>
     <n v="185811.06153846154"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="222"/>
     <n v="695"/>
   </r>
@@ -6170,7 +6208,7 @@
     <n v="1053220.5"/>
     <n v="843395.10900000005"/>
     <n v="137019.67692307691"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="223"/>
     <n v="651"/>
   </r>
@@ -6182,7 +6220,7 @@
     <n v="1489132.5"/>
     <n v="1209901.0159999998"/>
     <n v="272121.81538461539"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="224"/>
     <n v="1016"/>
   </r>
@@ -6194,7 +6232,7 @@
     <n v="1465842"/>
     <n v="1193019.642"/>
     <n v="272484.63076923077"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="225"/>
     <n v="888"/>
   </r>
@@ -6206,7 +6244,7 @@
     <n v="1123830"/>
     <n v="914932.571"/>
     <n v="284287.79007692303"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="226"/>
     <n v="743"/>
   </r>
@@ -6218,7 +6256,7 @@
     <n v="1380751.5"/>
     <n v="1137748.7319999998"/>
     <n v="227139.51416923077"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="227"/>
     <n v="930"/>
   </r>
@@ -6230,7 +6268,7 @@
     <n v="1430254.5"/>
     <n v="1175778.8370000001"/>
     <n v="286968.87692307692"/>
-    <n v="16"/>
+    <x v="16"/>
     <x v="228"/>
     <n v="938"/>
   </r>
@@ -6242,7 +6280,7 @@
     <n v="1384179"/>
     <n v="1116620.7919999999"/>
     <n v="220298.15353846154"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="229"/>
     <n v="823"/>
   </r>
@@ -6254,7 +6292,7 @@
     <n v="1102887"/>
     <n v="914116.79200000002"/>
     <n v="173095.92049999998"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="230"/>
     <n v="690"/>
   </r>
@@ -6266,7 +6304,7 @@
     <n v="1243507.5"/>
     <n v="987216.74099999992"/>
     <n v="233030.6"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="231"/>
     <n v="795"/>
   </r>
@@ -6278,7 +6316,7 @@
     <n v="1120009.5"/>
     <n v="902752.71699999995"/>
     <n v="193184.6"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="232"/>
     <n v="696"/>
   </r>
@@ -6290,7 +6328,7 @@
     <n v="1221057"/>
     <n v="983096.41700000002"/>
     <n v="373408.83343076921"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="233"/>
     <n v="733"/>
   </r>
@@ -6302,7 +6340,7 @@
     <n v="1854001.5"/>
     <n v="1515956.368"/>
     <n v="206787.93638461537"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="234"/>
     <n v="1155"/>
   </r>
@@ -6314,7 +6352,7 @@
     <n v="1507867.5"/>
     <n v="1217527.6069999998"/>
     <n v="246242.8615384615"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="235"/>
     <n v="1020"/>
   </r>
@@ -6326,7 +6364,7 @@
     <n v="1103068.5"/>
     <n v="904501.45600000001"/>
     <n v="58978.558669230762"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="83"/>
     <n v="691"/>
   </r>
@@ -6338,7 +6376,7 @@
     <n v="1471537.5"/>
     <n v="1176721.1640000001"/>
     <n v="252262.82307692306"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="236"/>
     <n v="848"/>
   </r>
@@ -6350,7 +6388,7 @@
     <n v="1269786"/>
     <n v="1018857.6680000001"/>
     <n v="197493.53076923077"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="237"/>
     <n v="768"/>
   </r>
@@ -6362,7 +6400,7 @@
     <n v="1123894.5"/>
     <n v="898508.49699999997"/>
     <n v="273904.81530769228"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="238"/>
     <n v="703"/>
   </r>
@@ -6374,7 +6412,7 @@
     <n v="1548099"/>
     <n v="1256993.4810000001"/>
     <n v="213288.93846153846"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="239"/>
     <n v="1001"/>
   </r>
@@ -6386,7 +6424,7 @@
     <n v="1215033"/>
     <n v="985281.03599999985"/>
     <n v="143418.86295384614"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="240"/>
     <n v="647"/>
   </r>
@@ -6398,7 +6436,7 @@
     <n v="1403047.5"/>
     <n v="1195875.8800000001"/>
     <n v="173178.52204615384"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="241"/>
     <n v="827"/>
   </r>
@@ -6410,7 +6448,7 @@
     <n v="1060489.5"/>
     <n v="851805.179"/>
     <n v="171981.49101538458"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="61"/>
     <n v="591"/>
   </r>
@@ -6422,7 +6460,7 @@
     <n v="1081216.5"/>
     <n v="910141.15500000003"/>
     <n v="143296.04318461538"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="242"/>
     <n v="535"/>
   </r>
@@ -6434,7 +6472,7 @@
     <n v="610855.5"/>
     <n v="541946.12800000003"/>
     <n v="150795.58461538461"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="243"/>
     <n v="315"/>
   </r>
@@ -6446,7 +6484,7 @@
     <n v="2360914.5"/>
     <n v="1868643.6719999998"/>
     <n v="137636.84266153845"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="244"/>
     <n v="1450"/>
   </r>
@@ -6458,7 +6496,7 @@
     <n v="433243.5"/>
     <n v="377401.46199999994"/>
     <n v="65936.343369230759"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="245"/>
     <n v="203"/>
   </r>
@@ -6470,7 +6508,7 @@
     <n v="1152054"/>
     <n v="906579.62099999993"/>
     <n v="217611.18753846153"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="246"/>
     <n v="711"/>
   </r>
@@ -6482,7 +6520,7 @@
     <n v="505572"/>
     <n v="422390.908"/>
     <n v="42729.218369230766"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="247"/>
     <n v="225"/>
   </r>
@@ -6494,7 +6532,7 @@
     <n v="989632.5"/>
     <n v="829947.41200000001"/>
     <n v="196319.5046923077"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="248"/>
     <n v="538"/>
   </r>
@@ -6506,7 +6544,7 @@
     <n v="1103623.5"/>
     <n v="899589.3060000001"/>
     <n v="184440.53076923077"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="81"/>
     <n v="652"/>
   </r>
@@ -6518,7 +6556,7 @@
     <n v="1104858"/>
     <n v="915994.11899999983"/>
     <n v="161654.46923076923"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="54"/>
     <n v="664"/>
   </r>
@@ -6530,7 +6568,7 @@
     <n v="694593"/>
     <n v="622755.04999999993"/>
     <n v="172368.62218461538"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="249"/>
     <n v="381"/>
   </r>
@@ -6542,7 +6580,7 @@
     <n v="2277072"/>
     <n v="1804070.1239999998"/>
     <n v="125553.02143076922"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="250"/>
     <n v="1368"/>
   </r>
@@ -6554,7 +6592,7 @@
     <n v="949912.5"/>
     <n v="785961.28899999999"/>
     <n v="253438.94004615385"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="251"/>
     <n v="515"/>
   </r>
@@ -6566,7 +6604,7 @@
     <n v="1592119.5"/>
     <n v="1279369.1529999999"/>
     <n v="119890.85384615383"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="252"/>
     <n v="1054"/>
   </r>
@@ -6578,7 +6616,7 @@
     <n v="665302.5"/>
     <n v="644221.49399999995"/>
     <n v="95245.727138461531"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="249"/>
     <n v="384"/>
   </r>
@@ -6590,7 +6628,7 @@
     <n v="2457252"/>
     <n v="1983435.05"/>
     <n v="175066.50692307693"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="253"/>
     <n v="1499"/>
   </r>
@@ -6602,7 +6640,7 @@
     <n v="739291.5"/>
     <n v="651727.3679999999"/>
     <n v="154318.62433846152"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="254"/>
     <n v="389"/>
   </r>
@@ -6614,7 +6652,7 @@
     <n v="1315075.5"/>
     <n v="1074904.135"/>
     <n v="269233.34436923079"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="255"/>
     <n v="725"/>
   </r>
@@ -6626,7 +6664,7 @@
     <n v="1487928"/>
     <n v="1187884.8939999999"/>
     <n v="279400.0153846154"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="256"/>
     <n v="968"/>
   </r>
@@ -6638,7 +6676,7 @@
     <n v="1230687"/>
     <n v="985675.48699999996"/>
     <n v="224353.45695384615"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="257"/>
     <n v="736"/>
   </r>
@@ -6650,7 +6688,7 @@
     <n v="404691"/>
     <n v="333054.54800000001"/>
     <n v="11494.630769230769"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="258"/>
     <n v="195"/>
   </r>
@@ -6662,7 +6700,7 @@
     <n v="1198285.5"/>
     <n v="1018063.802"/>
     <n v="178012.59307692308"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="259"/>
     <n v="608"/>
   </r>
@@ -6674,7 +6712,7 @@
     <n v="798759"/>
     <n v="669115.93699999992"/>
     <n v="171987.47030000002"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="260"/>
     <n v="412"/>
   </r>
@@ -6686,7 +6724,7 @@
     <n v="769276.5"/>
     <n v="654599.97699999996"/>
     <n v="184385.1884923077"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="261"/>
     <n v="398"/>
   </r>
@@ -6698,7 +6736,7 @@
     <n v="1184865"/>
     <n v="953822.62099999993"/>
     <n v="340158.78723076923"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="262"/>
     <n v="673"/>
   </r>
@@ -6710,7 +6748,7 @@
     <n v="2922883.5"/>
     <n v="2340316.3049999997"/>
     <n v="109812.45384615385"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="263"/>
     <n v="1868"/>
   </r>
@@ -6722,7 +6760,7 @@
     <n v="2446530"/>
     <n v="1956748.2629999998"/>
     <n v="108543.03143076923"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="264"/>
     <n v="1667"/>
   </r>
@@ -6734,7 +6772,7 @@
     <n v="2435632.5"/>
     <n v="1954139.7149999999"/>
     <n v="79541.984615384616"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="265"/>
     <n v="1633"/>
   </r>
@@ -6746,7 +6784,7 @@
     <n v="2384937"/>
     <n v="1880070.5110000002"/>
     <n v="141472.14615384614"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="25"/>
     <n v="1412"/>
   </r>
@@ -6758,7 +6796,7 @@
     <n v="2155668"/>
     <n v="1685753.1839999999"/>
     <n v="135489.15811538461"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="266"/>
     <n v="1346"/>
   </r>
@@ -6770,7 +6808,7 @@
     <n v="1682851.5"/>
     <n v="1337535.2989999999"/>
     <n v="121636.08074615385"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="267"/>
     <n v="1080"/>
   </r>
@@ -6782,7 +6820,7 @@
     <n v="2410803"/>
     <n v="1897998.2520000001"/>
     <n v="96303.4"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="268"/>
     <n v="1655"/>
   </r>
@@ -6794,7 +6832,7 @@
     <n v="3168510"/>
     <n v="2533138.7200000002"/>
     <n v="102615.49999999999"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="269"/>
     <n v="1791"/>
   </r>
@@ -6806,7 +6844,7 @@
     <n v="2243160"/>
     <n v="1757185.7729999998"/>
     <n v="114933.59230769231"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="270"/>
     <n v="1454"/>
   </r>
@@ -6818,7 +6856,7 @@
     <n v="2198935.5"/>
     <n v="1755958.3049999999"/>
     <n v="102833.37792307691"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="271"/>
     <n v="1505"/>
   </r>
@@ -6830,7 +6868,7 @@
     <n v="2520759"/>
     <n v="2010739.0729999999"/>
     <n v="106300.0107076923"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="272"/>
     <n v="1678"/>
   </r>
@@ -6842,7 +6880,7 @@
     <n v="2380333.5"/>
     <n v="1873451.2719999999"/>
     <n v="149632.49369999999"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="273"/>
     <n v="1482"/>
   </r>
@@ -6854,7 +6892,7 @@
     <n v="2263651.5"/>
     <n v="1783039.3049999997"/>
     <n v="139331.31929230769"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="274"/>
     <n v="1447"/>
   </r>
@@ -6866,7 +6904,7 @@
     <n v="1336789.5"/>
     <n v="1084824.9949999999"/>
     <n v="167974.06755384614"/>
-    <n v="16"/>
+    <x v="16"/>
     <x v="275"/>
     <n v="802"/>
   </r>
@@ -6878,7 +6916,7 @@
     <n v="1906557"/>
     <n v="1485927.8739999998"/>
     <n v="100092.68052307691"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="276"/>
     <n v="1192"/>
   </r>
@@ -6890,7 +6928,7 @@
     <n v="1609090.5"/>
     <n v="1298844.2"/>
     <n v="137945.5276"/>
-    <n v="16"/>
+    <x v="16"/>
     <x v="277"/>
     <n v="918"/>
   </r>
@@ -6902,7 +6940,7 @@
     <n v="2159350.5"/>
     <n v="1715939.5399999998"/>
     <n v="115138.50836153845"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="278"/>
     <n v="1374"/>
   </r>
@@ -6914,7 +6952,7 @@
     <n v="3089140.5"/>
     <n v="2533823.1740000001"/>
     <n v="109891.53846153845"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="279"/>
     <n v="1999"/>
   </r>
@@ -6926,7 +6964,7 @@
     <n v="1239747"/>
     <n v="995597.5199999999"/>
     <n v="216733.44615384613"/>
-    <n v="16"/>
+    <x v="16"/>
     <x v="280"/>
     <n v="762"/>
   </r>
@@ -6938,7 +6976,7 @@
     <n v="2512803"/>
     <n v="1972327.267"/>
     <n v="174025.3846153846"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="281"/>
     <n v="1738"/>
   </r>
@@ -6950,7 +6988,7 @@
     <n v="2560080"/>
     <n v="2016381.645"/>
     <n v="41912.707692307689"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="282"/>
     <n v="1506"/>
   </r>
@@ -6962,7 +7000,7 @@
     <n v="2767270.5"/>
     <n v="2174380.5969999996"/>
     <n v="80170.980907692297"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="283"/>
     <n v="1680"/>
   </r>
@@ -6974,7 +7012,7 @@
     <n v="2235960"/>
     <n v="1780335.608"/>
     <n v="140320.89928461539"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="18"/>
     <n v="1380"/>
   </r>
@@ -6986,7 +7024,7 @@
     <n v="2308336.5"/>
     <n v="1837113.1940000001"/>
     <n v="115064.43612307693"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="284"/>
     <n v="1435"/>
   </r>
@@ -6998,7 +7036,7 @@
     <n v="2526909"/>
     <n v="2092407.26"/>
     <n v="62346.415384615379"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="285"/>
     <n v="1706"/>
   </r>
@@ -7010,7 +7048,7 @@
     <n v="21615333"/>
     <n v="15729720.814999998"/>
     <n v="273156.71999999997"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="286"/>
     <n v="12251"/>
   </r>
@@ -7022,7 +7060,7 @@
     <n v="21114898.5"/>
     <n v="15426373.358999999"/>
     <n v="255889.23846153845"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="287"/>
     <n v="12072"/>
   </r>
@@ -7034,7 +7072,7 @@
     <n v="2794324.5"/>
     <n v="2251714.5490000001"/>
     <n v="37852.04366923077"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="288"/>
     <n v="1879"/>
   </r>
@@ -7046,7 +7084,7 @@
     <n v="3005334"/>
     <n v="2408136.8190000001"/>
     <n v="113231.09230769232"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="289"/>
     <n v="1957"/>
   </r>
@@ -7058,7 +7096,7 @@
     <n v="2559211.5"/>
     <n v="2038847.0090000001"/>
     <n v="74270.530769230769"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="290"/>
     <n v="1701"/>
   </r>
@@ -7070,7 +7108,7 @@
     <n v="23689383"/>
     <n v="17329462.175999999"/>
     <n v="258177.63846153844"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="291"/>
     <n v="13118"/>
   </r>
@@ -7082,7 +7120,7 @@
     <n v="21945858"/>
     <n v="15975681.728"/>
     <n v="296759.42307692306"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="292"/>
     <n v="12987"/>
   </r>
@@ -7094,7 +7132,7 @@
     <n v="19546386"/>
     <n v="14278298.844000001"/>
     <n v="264289.06153846154"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="293"/>
     <n v="10989"/>
   </r>
@@ -7106,7 +7144,7 @@
     <n v="19218631.5"/>
     <n v="13973128.512"/>
     <n v="403874.8839461538"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="294"/>
     <n v="11137"/>
   </r>
@@ -7118,7 +7156,7 @@
     <n v="24292218"/>
     <n v="17650186.028999999"/>
     <n v="347608.63846153842"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="295"/>
     <n v="13432"/>
   </r>
@@ -7130,7 +7168,7 @@
     <n v="20871391.5"/>
     <n v="15206983.089"/>
     <n v="284467.66153846157"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="296"/>
     <n v="11884"/>
   </r>
@@ -7142,7 +7180,7 @@
     <n v="19625364"/>
     <n v="14386025.838000001"/>
     <n v="361439.69230769225"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="297"/>
     <n v="11477"/>
   </r>
@@ -7154,7 +7192,7 @@
     <n v="25163431.5"/>
     <n v="18210825.697000001"/>
     <n v="272401.2"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="298"/>
     <n v="14299"/>
   </r>
@@ -7166,7 +7204,7 @@
     <n v="25413351"/>
     <n v="18463277.771000002"/>
     <n v="369443.39999999997"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="299"/>
     <n v="13873"/>
   </r>
@@ -7178,7 +7216,7 @@
     <n v="19205179.5"/>
     <n v="13834210.461999999"/>
     <n v="383344.65076923074"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="300"/>
     <n v="11194"/>
   </r>
@@ -7190,7 +7228,7 @@
     <n v="22253295"/>
     <n v="16496134.313999999"/>
     <n v="334550.50769230764"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="301"/>
     <n v="13002"/>
   </r>
@@ -7202,7 +7240,7 @@
     <n v="21959286"/>
     <n v="15958453.927999999"/>
     <n v="417117.17692307686"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="302"/>
     <n v="12834"/>
   </r>
@@ -7214,7 +7252,7 @@
     <n v="21919435.5"/>
     <n v="15790923.194999998"/>
     <n v="365011.08061538462"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="303"/>
     <n v="12486"/>
   </r>
@@ -7226,7 +7264,7 @@
     <n v="20003263.5"/>
     <n v="14633542.982000001"/>
     <n v="268185.43076923076"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="304"/>
     <n v="11532"/>
   </r>
@@ -7238,7 +7276,7 @@
     <n v="19437273"/>
     <n v="13979092.230999999"/>
     <n v="418713.96153846156"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="305"/>
     <n v="11245"/>
   </r>
@@ -7250,7 +7288,7 @@
     <n v="26492278.5"/>
     <n v="19179229.932"/>
     <n v="254778.07384615383"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="306"/>
     <n v="14163"/>
   </r>
@@ -7262,7 +7300,7 @@
     <n v="23032992"/>
     <n v="16792969.817999996"/>
     <n v="443086.25303076918"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="307"/>
     <n v="13118"/>
   </r>
@@ -7274,7 +7312,7 @@
     <n v="28590910.5"/>
     <n v="21740920.338999998"/>
     <n v="206427.73076923075"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="308"/>
     <n v="16010"/>
   </r>
@@ -7286,7 +7324,7 @@
     <n v="20582743.5"/>
     <n v="14894008.652000001"/>
     <n v="316452.66153846157"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="309"/>
     <n v="12056"/>
   </r>
@@ -7298,7 +7336,7 @@
     <n v="22530000"/>
     <n v="16370527.077"/>
     <n v="115618.05384615384"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="310"/>
     <n v="12255"/>
   </r>
@@ -7310,7 +7348,7 @@
     <n v="24890404.5"/>
     <n v="18159589.107999999"/>
     <n v="258558.49999999997"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="311"/>
     <n v="13566"/>
   </r>
@@ -7322,7 +7360,7 @@
     <n v="23881948.5"/>
     <n v="17462223.403999999"/>
     <n v="512464.9846153846"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="312"/>
     <n v="13106"/>
   </r>
@@ -7334,7 +7372,7 @@
     <n v="22460130"/>
     <n v="16627687.641000001"/>
     <n v="518998.75384615385"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="313"/>
     <n v="12517"/>
   </r>
@@ -7346,7 +7384,7 @@
     <n v="19959801"/>
     <n v="15125624.641999999"/>
     <n v="318671.85465384612"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="314"/>
     <n v="11916"/>
   </r>
@@ -7358,7 +7396,7 @@
     <n v="22355338.5"/>
     <n v="16443448.491999999"/>
     <n v="291468.59999999998"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="315"/>
     <n v="12299"/>
   </r>
@@ -7370,7 +7408,7 @@
     <n v="20590072.5"/>
     <n v="15078027.685000001"/>
     <n v="293452.29237692308"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="316"/>
     <n v="12244"/>
   </r>
@@ -7382,7 +7420,7 @@
     <n v="18449091"/>
     <n v="13533023.127999999"/>
     <n v="246229.69714615386"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="317"/>
     <n v="10467"/>
   </r>
@@ -7394,7 +7432,7 @@
     <n v="18085798.5"/>
     <n v="13150397.668"/>
     <n v="444057.73347692302"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="318"/>
     <n v="10492"/>
   </r>
@@ -7406,7 +7444,7 @@
     <n v="22796827.5"/>
     <n v="16597666.014999999"/>
     <n v="404297.74615384609"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="319"/>
     <n v="12697"/>
   </r>
@@ -7418,7 +7456,7 @@
     <n v="18625921.5"/>
     <n v="13628439.163999999"/>
     <n v="370802.93846153846"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="320"/>
     <n v="10754"/>
   </r>
@@ -7430,7 +7468,7 @@
     <n v="23856345"/>
     <n v="17297352.185000002"/>
     <n v="279472.16153846151"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="321"/>
     <n v="13510"/>
   </r>
@@ -7442,7 +7480,7 @@
     <n v="23953536"/>
     <n v="17342946.796999998"/>
     <n v="380499.56092307693"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="322"/>
     <n v="13026"/>
   </r>
@@ -7454,7 +7492,7 @@
     <n v="18718036.5"/>
     <n v="13500671.991999999"/>
     <n v="344959.87384615385"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="323"/>
     <n v="10862"/>
   </r>
@@ -7466,7 +7504,7 @@
     <n v="21042673.5"/>
     <n v="15681371.557000002"/>
     <n v="296732.59615384613"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="324"/>
     <n v="12360"/>
   </r>
@@ -7478,7 +7516,7 @@
     <n v="21411349.5"/>
     <n v="15600701.422999999"/>
     <n v="410370.5153846154"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="325"/>
     <n v="12428"/>
   </r>
@@ -7490,7 +7528,7 @@
     <n v="20880142.5"/>
     <n v="15015521.489999998"/>
     <n v="398269.43076923076"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="326"/>
     <n v="11887"/>
   </r>
@@ -7502,7 +7540,7 @@
     <n v="18784000.5"/>
     <n v="13568684.673999999"/>
     <n v="349844.36153846153"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="327"/>
     <n v="10803"/>
   </r>
@@ -7514,7 +7552,7 @@
     <n v="21585316.5"/>
     <n v="16285354.714"/>
     <n v="183249.26153846155"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="328"/>
     <n v="12690"/>
   </r>
@@ -7526,7 +7564,7 @@
     <n v="25519072.5"/>
     <n v="18491870.614999998"/>
     <n v="270910.05384615384"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="329"/>
     <n v="13751"/>
   </r>
@@ -7538,7 +7576,7 @@
     <n v="24527245.5"/>
     <n v="18595804.535"/>
     <n v="282204.5230769231"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="330"/>
     <n v="13956"/>
   </r>
@@ -7550,7 +7588,7 @@
     <n v="22126444.5"/>
     <n v="16128268.832"/>
     <n v="389877.53846153844"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="331"/>
     <n v="12518"/>
   </r>
@@ -7562,7 +7600,7 @@
     <n v="26806626"/>
     <n v="20508194.544999998"/>
     <n v="239346.81538461536"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="332"/>
     <n v="15065"/>
   </r>
@@ -7574,7 +7612,7 @@
     <n v="20535733.5"/>
     <n v="15173462.744000001"/>
     <n v="257491.36923076925"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="333"/>
     <n v="11954"/>
   </r>
@@ -7586,7 +7624,7 @@
     <n v="19806927"/>
     <n v="14358653.389999999"/>
     <n v="319377.7946153846"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="334"/>
     <n v="11519"/>
   </r>
@@ -7598,7 +7636,7 @@
     <n v="21740460"/>
     <n v="15789926.042999998"/>
     <n v="115102.03846153845"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="335"/>
     <n v="11865"/>
   </r>
@@ -7610,7 +7648,7 @@
     <n v="23443725"/>
     <n v="17121204.866"/>
     <n v="269535.72538461542"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="336"/>
     <n v="12864"/>
   </r>
@@ -7622,7 +7660,7 @@
     <n v="22846078.5"/>
     <n v="16722171.227"/>
     <n v="479024.68461538455"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="337"/>
     <n v="12604"/>
   </r>
@@ -7634,7 +7672,7 @@
     <n v="21463023"/>
     <n v="15847839.739"/>
     <n v="521163.87692307692"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="338"/>
     <n v="11858"/>
   </r>
@@ -7646,7 +7684,7 @@
     <n v="19071117"/>
     <n v="14541424.877999999"/>
     <n v="304806.9854230769"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="339"/>
     <n v="11427"/>
   </r>
@@ -7658,7 +7696,7 @@
     <n v="981519"/>
     <n v="867080.68200000003"/>
     <n v="102160.21538461538"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="340"/>
     <n v="575"/>
   </r>
@@ -7670,7 +7708,7 @@
     <n v="992541"/>
     <n v="874678.696"/>
     <n v="83886.676923076913"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="341"/>
     <n v="547"/>
   </r>
@@ -7682,7 +7720,7 @@
     <n v="20717248.5"/>
     <n v="15667372.685999999"/>
     <n v="180007.08753846152"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="342"/>
     <n v="12164"/>
   </r>
@@ -7694,7 +7732,7 @@
     <n v="24151980"/>
     <n v="18429449.488000002"/>
     <n v="303444.36538461538"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="343"/>
     <n v="13551"/>
   </r>
@@ -7706,7 +7744,7 @@
     <n v="19549036.5"/>
     <n v="14481164.23"/>
     <n v="266079.27846153843"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="344"/>
     <n v="11582"/>
   </r>
@@ -7718,7 +7756,7 @@
     <n v="1316350.5"/>
     <n v="1092945.2830000001"/>
     <n v="175846.6446153846"/>
-    <n v="16"/>
+    <x v="16"/>
     <x v="345"/>
     <n v="818"/>
   </r>
@@ -7730,7 +7768,7 @@
     <n v="1126810.5"/>
     <n v="963035.41399999999"/>
     <n v="202056.34519230769"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="346"/>
     <n v="757"/>
   </r>
@@ -7742,7 +7780,7 @@
     <n v="1157529"/>
     <n v="935379.42299999984"/>
     <n v="111375.6648"/>
-    <n v="16"/>
+    <x v="16"/>
     <x v="347"/>
     <n v="746"/>
   </r>
@@ -7754,7 +7792,7 @@
     <n v="955801.5"/>
     <n v="795942.652"/>
     <n v="165952.05877692305"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="348"/>
     <n v="570"/>
   </r>
@@ -7766,7 +7804,7 @@
     <n v="906343.5"/>
     <n v="762082.74899999995"/>
     <n v="125305.56399230768"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="349"/>
     <n v="538"/>
   </r>
@@ -7778,7 +7816,7 @@
     <n v="816859.5"/>
     <n v="697541.2969999999"/>
     <n v="106508.82307692307"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="350"/>
     <n v="493"/>
   </r>
@@ -7790,7 +7828,7 @@
     <n v="833815.5"/>
     <n v="737888.36599999992"/>
     <n v="39424.853846153841"/>
-    <n v="7"/>
+    <x v="20"/>
     <x v="351"/>
     <n v="389"/>
   </r>
@@ -7802,7 +7840,7 @@
     <n v="1134444"/>
     <n v="971710.87099999993"/>
     <n v="291527.8831384615"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="352"/>
     <n v="625"/>
   </r>
@@ -7814,7 +7852,7 @@
     <n v="1092277.5"/>
     <n v="921493.48300000001"/>
     <n v="218151.6"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="221"/>
     <n v="659"/>
   </r>
@@ -7826,7 +7864,7 @@
     <n v="1172574"/>
     <n v="968784.86499999987"/>
     <n v="94547"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="353"/>
     <n v="786"/>
   </r>
@@ -7838,7 +7876,7 @@
     <n v="1217749.5"/>
     <n v="1025585.5199999999"/>
     <n v="84618.754369230766"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="354"/>
     <n v="794"/>
   </r>
@@ -7850,7 +7888,7 @@
     <n v="1145575.5"/>
     <n v="974448.12600000005"/>
     <n v="152152.96544615386"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="221"/>
     <n v="658"/>
   </r>
@@ -7862,7 +7900,7 @@
     <n v="1172691"/>
     <n v="971555.08299999998"/>
     <n v="124018.33614615384"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="355"/>
     <n v="756"/>
   </r>
@@ -7874,7 +7912,7 @@
     <n v="816150"/>
     <n v="698626.03299999994"/>
     <n v="97812.892307692295"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="356"/>
     <n v="502"/>
   </r>
@@ -7886,7 +7924,7 @@
     <n v="1016566.5"/>
     <n v="858367.60399999993"/>
     <n v="88833.638169230762"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="357"/>
     <n v="611"/>
   </r>
@@ -7898,7 +7936,7 @@
     <n v="1457391"/>
     <n v="1194154.7659999998"/>
     <n v="124621.03076923077"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="358"/>
     <n v="918"/>
   </r>
@@ -7910,7 +7948,7 @@
     <n v="1326705"/>
     <n v="1070563.6439999999"/>
     <n v="123343.24153846155"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="359"/>
     <n v="887"/>
   </r>
@@ -7922,7 +7960,7 @@
     <n v="1004511"/>
     <n v="861334.61399999994"/>
     <n v="20847.353846153845"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="57"/>
     <n v="550"/>
   </r>
@@ -7934,7 +7972,7 @@
     <n v="1216557"/>
     <n v="1013050.3829999999"/>
     <n v="102510.40189230769"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="360"/>
     <n v="695"/>
   </r>
@@ -7946,7 +7984,7 @@
     <n v="1046848.5"/>
     <n v="892743.74599999993"/>
     <n v="396844.24095384614"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="361"/>
     <n v="609"/>
   </r>
@@ -7958,7 +7996,7 @@
     <n v="965880"/>
     <n v="809986.38600000006"/>
     <n v="106745.03623846154"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="362"/>
     <n v="591"/>
   </r>
@@ -7970,7 +8008,7 @@
     <n v="1386262.5"/>
     <n v="1130117.3810000001"/>
     <n v="121581.84923076924"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="363"/>
     <n v="904"/>
   </r>
@@ -7982,7 +8020,7 @@
     <n v="1210456.5"/>
     <n v="970917.12399999995"/>
     <n v="88147.13846153846"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="364"/>
     <n v="804"/>
   </r>
@@ -7994,7 +8032,7 @@
     <n v="636345"/>
     <n v="550528.66300000006"/>
     <n v="190344.3008"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="365"/>
     <n v="370"/>
   </r>
@@ -8006,7 +8044,7 @@
     <n v="493893"/>
     <n v="459762.61999999994"/>
     <n v="28040.97692307692"/>
-    <n v="9"/>
+    <x v="21"/>
     <x v="366"/>
     <n v="255"/>
   </r>
@@ -8018,7 +8056,7 @@
     <n v="928675.5"/>
     <n v="802403.80799999996"/>
     <n v="136423.60523076923"/>
-    <n v="7"/>
+    <x v="20"/>
     <x v="367"/>
     <n v="449"/>
   </r>
@@ -8030,7 +8068,7 @@
     <n v="651237"/>
     <n v="601485.12600000005"/>
     <n v="83014.635053846156"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="368"/>
     <n v="329"/>
   </r>
@@ -8042,7 +8080,7 @@
     <n v="694669.5"/>
     <n v="594994.696"/>
     <n v="42699.38461538461"/>
-    <n v="7"/>
+    <x v="20"/>
     <x v="369"/>
     <n v="347"/>
   </r>
@@ -8054,7 +8092,7 @@
     <n v="3015751.5"/>
     <n v="2415980.7719999999"/>
     <n v="346048.63569230767"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="370"/>
     <n v="1893"/>
   </r>
@@ -8066,7 +8104,7 @@
     <n v="3091069.5"/>
     <n v="2549333.4129999997"/>
     <n v="289900.09384615382"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="371"/>
     <n v="1853"/>
   </r>
@@ -8078,7 +8116,7 @@
     <n v="468835.5"/>
     <n v="412625.88699999999"/>
     <n v="8642.376923076923"/>
-    <n v="6"/>
+    <x v="22"/>
     <x v="372"/>
     <n v="188"/>
   </r>
@@ -8090,7 +8128,7 @@
     <n v="2479396.5"/>
     <n v="1950422.9030000002"/>
     <n v="381635.95355384616"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="373"/>
     <n v="1457"/>
   </r>
@@ -8102,7 +8140,7 @@
     <n v="1773154.5"/>
     <n v="1458979.4909999999"/>
     <n v="98432.213407692296"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="374"/>
     <n v="1101"/>
   </r>
@@ -8114,7 +8152,7 @@
     <n v="1387443"/>
     <n v="1121336.507"/>
     <n v="101620.2923076923"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="375"/>
     <n v="911"/>
   </r>
@@ -8126,7 +8164,7 @@
     <n v="2826379.5"/>
     <n v="2229453.5079999999"/>
     <n v="331756.18072307692"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="376"/>
     <n v="1660"/>
   </r>
@@ -8138,7 +8176,7 @@
     <n v="2703132"/>
     <n v="2160539.9959999998"/>
     <n v="312856.16153846151"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="377"/>
     <n v="1548"/>
   </r>
@@ -8150,7 +8188,7 @@
     <n v="3038293.5"/>
     <n v="2442084.5610000002"/>
     <n v="277257.14947692305"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="196"/>
     <n v="1742"/>
   </r>
@@ -8162,7 +8200,7 @@
     <n v="2945035.5"/>
     <n v="2320195.4450000003"/>
     <n v="383761.6669230769"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="378"/>
     <n v="1849"/>
   </r>
@@ -8174,7 +8212,7 @@
     <n v="866023.5"/>
     <n v="744833.00199999998"/>
     <n v="19998.63846153846"/>
-    <n v="7"/>
+    <x v="20"/>
     <x v="379"/>
     <n v="447"/>
   </r>
@@ -8186,7 +8224,7 @@
     <n v="3193167"/>
     <n v="2545757.0549999997"/>
     <n v="202281.06923076924"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="380"/>
     <n v="1917"/>
   </r>
@@ -8198,7 +8236,7 @@
     <n v="6701083.5"/>
     <n v="5109499.6169999996"/>
     <n v="76226.26923076922"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="381"/>
     <n v="4977"/>
   </r>
@@ -8210,7 +8248,7 @@
     <n v="7728465"/>
     <n v="6415904.9240000006"/>
     <n v="150138.82307692309"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="382"/>
     <n v="5533"/>
   </r>
@@ -8222,7 +8260,7 @@
     <n v="6829921.5"/>
     <n v="5152925.182"/>
     <n v="219200.11557692307"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="383"/>
     <n v="5081"/>
   </r>
@@ -8234,7 +8272,7 @@
     <n v="1423410"/>
     <n v="1183524.9380000001"/>
     <n v="41938.950392307692"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="384"/>
     <n v="925"/>
   </r>
@@ -8246,7 +8284,7 @@
     <n v="6398719.5"/>
     <n v="4782829.6060000006"/>
     <n v="186502.14615384614"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="185"/>
     <n v="4483"/>
   </r>
@@ -8258,7 +8296,7 @@
     <n v="6609714"/>
     <n v="5024858.7929999996"/>
     <n v="140406.07692307691"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="385"/>
     <n v="4813"/>
   </r>
@@ -8270,7 +8308,7 @@
     <n v="6053649"/>
     <n v="4580254.1549999993"/>
     <n v="131801.93944615382"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="386"/>
     <n v="4372"/>
   </r>
@@ -8282,7 +8320,7 @@
     <n v="6876454.5"/>
     <n v="5258162.2879999997"/>
     <n v="162133.18461538461"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="387"/>
     <n v="4778"/>
   </r>
@@ -8294,7 +8332,7 @@
     <n v="1054798.5"/>
     <n v="878389.06499999994"/>
     <n v="67454.765369230765"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="388"/>
     <n v="660"/>
   </r>
@@ -8306,7 +8344,7 @@
     <n v="1455049.5"/>
     <n v="1301439.284"/>
     <n v="69189.123076923075"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="389"/>
     <n v="861"/>
   </r>
@@ -8318,7 +8356,7 @@
     <n v="1007742"/>
     <n v="815296.88"/>
     <n v="145147.84546153847"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="390"/>
     <n v="627"/>
   </r>
@@ -8330,7 +8368,7 @@
     <n v="734335.5"/>
     <n v="622482.40399999998"/>
     <n v="113093.66153846154"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="391"/>
     <n v="421"/>
   </r>
@@ -8342,7 +8380,7 @@
     <n v="7387116"/>
     <n v="5815890.3319999995"/>
     <n v="161811.89230769229"/>
-    <n v="31"/>
+    <x v="5"/>
     <x v="392"/>
     <n v="5319"/>
   </r>
@@ -8354,7 +8392,7 @@
     <n v="936427.5"/>
     <n v="813406.68400000001"/>
     <n v="117272.7846153846"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="393"/>
     <n v="565"/>
   </r>
@@ -8366,7 +8404,7 @@
     <n v="981564"/>
     <n v="877726.201"/>
     <n v="69249.011815384612"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="394"/>
     <n v="545"/>
   </r>
@@ -8378,7 +8416,7 @@
     <n v="1150579.5"/>
     <n v="1038033.7869999999"/>
     <n v="68487.358569230768"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="395"/>
     <n v="652"/>
   </r>
@@ -8390,7 +8428,7 @@
     <n v="1273464"/>
     <n v="1068326.9369999999"/>
     <n v="76299.023384615386"/>
-    <n v="10"/>
+    <x v="6"/>
     <x v="396"/>
     <n v="770"/>
   </r>
@@ -8402,7 +8440,7 @@
     <n v="2924133"/>
     <n v="2311405.017"/>
     <n v="148582.33846153846"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="370"/>
     <n v="1856"/>
   </r>
@@ -8414,7 +8452,7 @@
     <n v="3414180"/>
     <n v="2805831.5209999997"/>
     <n v="124540.74078461538"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="397"/>
     <n v="2054"/>
   </r>
@@ -8426,7 +8464,7 @@
     <n v="3013512"/>
     <n v="2355616.679"/>
     <n v="219429.2774153846"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="398"/>
     <n v="1899"/>
   </r>
@@ -8438,7 +8476,7 @@
     <n v="3911979"/>
     <n v="3086459.8370000003"/>
     <n v="164514.63076923075"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="399"/>
     <n v="2270"/>
   </r>
@@ -8450,7 +8488,7 @@
     <n v="2588148"/>
     <n v="2042294.1669999999"/>
     <n v="160977.42935384615"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="400"/>
     <n v="1648"/>
   </r>
@@ -8462,7 +8500,7 @@
     <n v="2441520"/>
     <n v="1933378.3459999997"/>
     <n v="141658.27661538462"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="401"/>
     <n v="1475"/>
   </r>
@@ -8474,7 +8512,7 @@
     <n v="2949078"/>
     <n v="2391958.463"/>
     <n v="129383.86666153846"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="402"/>
     <n v="1715"/>
   </r>
@@ -8486,7 +8524,7 @@
     <n v="3258054"/>
     <n v="2595610.66"/>
     <n v="195198.78461538462"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="403"/>
     <n v="2000"/>
   </r>
@@ -8498,7 +8536,7 @@
     <n v="29256993"/>
     <n v="21169527.457000002"/>
     <n v="646741.28130000003"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="404"/>
     <n v="15962"/>
   </r>
@@ -8510,7 +8548,7 @@
     <n v="29465769"/>
     <n v="22276452.264999997"/>
     <n v="570447.6369538462"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="405"/>
     <n v="15804"/>
   </r>
@@ -8522,7 +8560,7 @@
     <n v="27770092.5"/>
     <n v="20952913.508000001"/>
     <n v="872904.40428461542"/>
-    <n v="128"/>
+    <x v="9"/>
     <x v="406"/>
     <n v="15130"/>
   </r>
@@ -8534,7 +8572,7 @@
     <n v="24628233.223949999"/>
     <n v="17679930.469999999"/>
     <n v="622499.33031538466"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="407"/>
     <n v="13167"/>
   </r>
@@ -8546,7 +8584,7 @@
     <n v="27535284.147600003"/>
     <n v="19680985.969000001"/>
     <n v="764540.58792307694"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="408"/>
     <n v="14992"/>
   </r>
@@ -8558,7 +8596,7 @@
     <n v="28181292"/>
     <n v="20493717.226"/>
     <n v="806120.19333076919"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="409"/>
     <n v="14738"/>
   </r>
@@ -8570,7 +8608,7 @@
     <n v="32354331"/>
     <n v="23895072.432"/>
     <n v="616932.92353846144"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="410"/>
     <n v="16486"/>
   </r>
@@ -8582,7 +8620,7 @@
     <n v="39034861.5"/>
     <n v="28040467.216000002"/>
     <n v="681486.56664615381"/>
-    <n v="124"/>
+    <x v="11"/>
     <x v="411"/>
     <n v="19897"/>
   </r>
@@ -8594,7 +8632,7 @@
     <n v="39498373.5"/>
     <n v="29683782.432999995"/>
     <n v="636230.32011538453"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="412"/>
     <n v="19799"/>
   </r>
@@ -8606,7 +8644,7 @@
     <n v="37257840.18135"/>
     <n v="27640203.134"/>
     <n v="744856.58547692304"/>
-    <n v="123"/>
+    <x v="23"/>
     <x v="413"/>
     <n v="18935"/>
   </r>
@@ -8618,7 +8656,7 @@
     <n v="33781581"/>
     <n v="24232690.171"/>
     <n v="605833.76570769225"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="414"/>
     <n v="16883"/>
   </r>
@@ -8630,7 +8668,7 @@
     <n v="41767140.105000004"/>
     <n v="32361318.846999999"/>
     <n v="525087.91538461542"/>
-    <n v="129"/>
+    <x v="8"/>
     <x v="415"/>
     <n v="20676"/>
   </r>
@@ -8642,7 +8680,7 @@
     <n v="36876888"/>
     <n v="26228948.559"/>
     <n v="898617.75030769221"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="416"/>
     <n v="19060"/>
   </r>
@@ -8654,7 +8692,7 @@
     <n v="37963150.5"/>
     <n v="27483828.208999999"/>
     <n v="506964.83088461537"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="417"/>
     <n v="18812"/>
   </r>
@@ -8666,7 +8704,7 @@
     <n v="42271377"/>
     <n v="31105053.390999999"/>
     <n v="571050.76427692303"/>
-    <n v="125"/>
+    <x v="10"/>
     <x v="418"/>
     <n v="20235"/>
   </r>
@@ -8678,7 +8716,7 @@
     <n v="5985894"/>
     <n v="4624968.49"/>
     <n v="168769.33384615384"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="419"/>
     <n v="4584"/>
   </r>
@@ -8690,7 +8728,7 @@
     <n v="5943489"/>
     <n v="5046963.6720000003"/>
     <n v="196334.07284615384"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="420"/>
     <n v="4456"/>
   </r>
@@ -8702,7 +8740,7 @@
     <n v="5800290"/>
     <n v="4332158.4330000002"/>
     <n v="205428.24997692305"/>
-    <n v="37"/>
+    <x v="13"/>
     <x v="421"/>
     <n v="4352"/>
   </r>
@@ -8714,7 +8752,7 @@
     <n v="5178169.5"/>
     <n v="3929032.2650000001"/>
     <n v="208822.33076923079"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="422"/>
     <n v="3838"/>
   </r>
@@ -8726,7 +8764,7 @@
     <n v="54172029"/>
     <n v="41382275.210999995"/>
     <n v="512623.0388076923"/>
-    <n v="124"/>
+    <x v="11"/>
     <x v="423"/>
     <n v="23974"/>
   </r>
@@ -8738,7 +8776,7 @@
     <n v="5798476.5"/>
     <n v="4485664.5060000001"/>
     <n v="182019.63597692308"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="424"/>
     <n v="4502"/>
   </r>
@@ -8750,7 +8788,7 @@
     <n v="5366602.5"/>
     <n v="4245727.3389999997"/>
     <n v="137701.4149"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="425"/>
     <n v="3950"/>
   </r>
@@ -8762,7 +8800,7 @@
     <n v="6293952"/>
     <n v="5100877.9309999999"/>
     <n v="159537.61835384613"/>
-    <n v="36"/>
+    <x v="12"/>
     <x v="426"/>
     <n v="4476"/>
   </r>
@@ -8774,7 +8812,7 @@
     <n v="3780852"/>
     <n v="2893288.4459999995"/>
     <n v="291528.45785384614"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="427"/>
     <n v="2216"/>
   </r>
@@ -8786,7 +8824,7 @@
     <n v="4840833"/>
     <n v="4017247.747"/>
     <n v="147709.19777692307"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="428"/>
     <n v="2612"/>
   </r>
@@ -8798,7 +8836,7 @@
     <n v="3865251"/>
     <n v="2972895.4169999999"/>
     <n v="336001.08039230772"/>
-    <n v="23"/>
+    <x v="14"/>
     <x v="429"/>
     <n v="2296"/>
   </r>
@@ -8810,7 +8848,7 @@
     <n v="3079630.5"/>
     <n v="2364369.4010000001"/>
     <n v="281373.57021538459"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="430"/>
     <n v="1733"/>
   </r>
@@ -8822,7 +8860,7 @@
     <n v="7228395"/>
     <n v="5795765.9359999998"/>
     <n v="264121.66047692305"/>
-    <n v="37"/>
+    <x v="13"/>
     <x v="431"/>
     <n v="5198"/>
   </r>
@@ -8834,7 +8872,7 @@
     <n v="3360135"/>
     <n v="2596293.8219999997"/>
     <n v="202175.53846153847"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="398"/>
     <n v="1947"/>
   </r>
@@ -8846,7 +8884,7 @@
     <n v="3166479"/>
     <n v="2522496.074"/>
     <n v="156584.58769230769"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="432"/>
     <n v="1796"/>
   </r>
@@ -8858,7 +8896,7 @@
     <n v="3772258.5"/>
     <n v="3092823.6680000001"/>
     <n v="167669.98904615385"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="433"/>
     <n v="2045"/>
   </r>
@@ -8870,7 +8908,7 @@
     <n v="4108596"/>
     <n v="3229427.0830000001"/>
     <n v="121448.35925384614"/>
-    <n v="22"/>
+    <x v="15"/>
     <x v="28"/>
     <n v="2379"/>
   </r>
@@ -8882,7 +8920,7 @@
     <n v="1603084.5"/>
     <n v="1312709.0090000001"/>
     <n v="241760.20769230771"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="434"/>
     <n v="1077"/>
   </r>
@@ -8894,7 +8932,7 @@
     <n v="1774329"/>
     <n v="1460215.51"/>
     <n v="181509.9923076923"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="435"/>
     <n v="1129"/>
   </r>
@@ -8906,7 +8944,7 @@
     <n v="1526608.5"/>
     <n v="1202670.0489999999"/>
     <n v="340349.53369230771"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="436"/>
     <n v="1042"/>
   </r>
@@ -8918,7 +8956,7 @@
     <n v="1096002"/>
     <n v="872395.08600000001"/>
     <n v="218895.40769230769"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="246"/>
     <n v="714"/>
   </r>
@@ -8930,7 +8968,7 @@
     <n v="1246162.5"/>
     <n v="983143.48999999987"/>
     <n v="263823.34615384613"/>
-    <n v="16"/>
+    <x v="16"/>
     <x v="437"/>
     <n v="816"/>
   </r>
@@ -8942,7 +8980,7 @@
     <n v="1223491.5"/>
     <n v="977925.73100000003"/>
     <n v="285708.40769230766"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="354"/>
     <n v="777"/>
   </r>
@@ -8954,7 +8992,7 @@
     <n v="1370482.5"/>
     <n v="1095453.1229999999"/>
     <n v="250663.81538461539"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="438"/>
     <n v="867"/>
   </r>
@@ -8966,7 +9004,7 @@
     <n v="1211457"/>
     <n v="964554.21099999989"/>
     <n v="156117.80846153846"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="439"/>
     <n v="702"/>
   </r>
@@ -8978,7 +9016,7 @@
     <n v="1411909.5"/>
     <n v="1158841.584"/>
     <n v="186035.59738461539"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="440"/>
     <n v="792"/>
   </r>
@@ -8990,7 +9028,7 @@
     <n v="1565632.5"/>
     <n v="1234060.9909999999"/>
     <n v="194827.87672307692"/>
-    <n v="16"/>
+    <x v="16"/>
     <x v="441"/>
     <n v="895"/>
   </r>
@@ -9002,7 +9040,7 @@
     <n v="1081158"/>
     <n v="927698.82299999986"/>
     <n v="197299.08136923076"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="442"/>
     <n v="585"/>
   </r>
@@ -9014,7 +9052,7 @@
     <n v="1764669"/>
     <n v="1409485.402"/>
     <n v="182377.32307692306"/>
-    <n v="17"/>
+    <x v="7"/>
     <x v="443"/>
     <n v="1153"/>
   </r>
@@ -9026,7 +9064,7 @@
     <n v="1115146.5"/>
     <n v="897555.51099999994"/>
     <n v="150809.61403846153"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="444"/>
     <n v="636"/>
   </r>
@@ -9038,7 +9076,7 @@
     <n v="963502.5"/>
     <n v="812962.67800000007"/>
     <n v="193118.32307692309"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="78"/>
     <n v="548"/>
   </r>
@@ -9050,7 +9088,7 @@
     <n v="1122730.5"/>
     <n v="921566.44700000004"/>
     <n v="147588"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="445"/>
     <n v="598"/>
   </r>
@@ -9062,7 +9100,7 @@
     <n v="2458555.5"/>
     <n v="1979227.4479999999"/>
     <n v="122940.53466153846"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="446"/>
     <n v="1715"/>
   </r>
@@ -9074,7 +9112,7 @@
     <n v="2540715"/>
     <n v="2108065.5690000001"/>
     <n v="90381.169230769228"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="447"/>
     <n v="1697"/>
   </r>
@@ -9086,7 +9124,7 @@
     <n v="2538967.5"/>
     <n v="1983277.5959999997"/>
     <n v="134168.53587692307"/>
-    <n v="21"/>
+    <x v="1"/>
     <x v="212"/>
     <n v="1720"/>
   </r>
@@ -9098,7 +9136,7 @@
     <n v="2164365"/>
     <n v="1678039.8589999999"/>
     <n v="151098.71538461538"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="448"/>
     <n v="1389"/>
   </r>
@@ -9110,7 +9148,7 @@
     <n v="1549020"/>
     <n v="1246591.997"/>
     <n v="104864.4846153846"/>
-    <n v="16"/>
+    <x v="16"/>
     <x v="449"/>
     <n v="859"/>
   </r>
@@ -9122,7 +9160,7 @@
     <n v="2324490"/>
     <n v="1796459.4790000001"/>
     <n v="129793.76153846155"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="450"/>
     <n v="1597"/>
   </r>
@@ -9134,7 +9172,7 @@
     <n v="2225341.5"/>
     <n v="1766450.28"/>
     <n v="91828.489107692309"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="451"/>
     <n v="1487"/>
   </r>
@@ -9146,7 +9184,7 @@
     <n v="2477487"/>
     <n v="2005719.3469999998"/>
     <n v="77264.32873846154"/>
-    <n v="19"/>
+    <x v="4"/>
     <x v="452"/>
     <n v="1615"/>
   </r>
@@ -9158,7 +9196,7 @@
     <n v="2854741.5"/>
     <n v="2293738.9569999999"/>
     <n v="58400.799200000001"/>
-    <n v="20"/>
+    <x v="2"/>
     <x v="453"/>
     <n v="1896"/>
   </r>
@@ -9170,7 +9208,7 @@
     <n v="22342300.5"/>
     <n v="16240834.603999998"/>
     <n v="285591.72307692305"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="454"/>
     <n v="12986"/>
   </r>
@@ -9182,7 +9220,7 @@
     <n v="22380772.5"/>
     <n v="17031004.072999999"/>
     <n v="275436.23846153845"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="455"/>
     <n v="13027"/>
   </r>
@@ -9194,7 +9232,7 @@
     <n v="19465372.5"/>
     <n v="14354207.141999999"/>
     <n v="467483.70729230763"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="456"/>
     <n v="11448"/>
   </r>
@@ -9206,7 +9244,7 @@
     <n v="17919144"/>
     <n v="12903628.608999999"/>
     <n v="355401.60769230768"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="457"/>
     <n v="10407"/>
   </r>
@@ -9218,7 +9256,7 @@
     <n v="20422435.5"/>
     <n v="14541626.939999998"/>
     <n v="279597.86153846153"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="458"/>
     <n v="11665"/>
   </r>
@@ -9230,7 +9268,7 @@
     <n v="19942435.5"/>
     <n v="14561721.772999998"/>
     <n v="363750.55692307692"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="459"/>
     <n v="11178"/>
   </r>
@@ -9242,7 +9280,7 @@
     <n v="23085222"/>
     <n v="17099721.813000001"/>
     <n v="329754.63076923077"/>
-    <n v="60"/>
+    <x v="18"/>
     <x v="460"/>
     <n v="12643"/>
   </r>
@@ -9254,7 +9292,7 @@
     <n v="20953324.5"/>
     <n v="15301120.521000002"/>
     <n v="356339.00384615385"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="461"/>
     <n v="12216"/>
   </r>
@@ -9266,7 +9304,7 @@
     <n v="20812585.5"/>
     <n v="15857489.721000001"/>
     <n v="256649.16153846151"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="462"/>
     <n v="12095"/>
   </r>
@@ -9278,7 +9316,7 @@
     <n v="18914194.5"/>
     <n v="13959979.012"/>
     <n v="464232.54846153839"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="463"/>
     <n v="11071"/>
   </r>
@@ -9290,7 +9328,7 @@
     <n v="16971231"/>
     <n v="12200989.641000001"/>
     <n v="416475.07692307688"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="464"/>
     <n v="9926"/>
   </r>
@@ -9302,7 +9340,7 @@
     <n v="23120443.5"/>
     <n v="17632080.519000001"/>
     <n v="331721.66923076921"/>
-    <n v="59"/>
+    <x v="17"/>
     <x v="465"/>
     <n v="13386"/>
   </r>
@@ -9314,7 +9352,7 @@
     <n v="19855122"/>
     <n v="14172342.450999999"/>
     <n v="269626.30769230769"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="466"/>
     <n v="11308"/>
   </r>
@@ -9326,7 +9364,7 @@
     <n v="18640998"/>
     <n v="13641908.620999999"/>
     <n v="364896.93846153846"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="467"/>
     <n v="10554"/>
   </r>
@@ -9338,7 +9376,7 @@
     <n v="21895294.5"/>
     <n v="16241999.308"/>
     <n v="317179.04615384614"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="468"/>
     <n v="11950"/>
   </r>
@@ -9350,7 +9388,7 @@
     <n v="22416151.5"/>
     <n v="17175270.221000001"/>
     <n v="306548.18846153846"/>
-    <n v="54"/>
+    <x v="19"/>
     <x v="469"/>
     <n v="12943"/>
   </r>
@@ -9362,7 +9400,7 @@
     <n v="687684"/>
     <n v="597300.38899999997"/>
     <n v="48380.499253846152"/>
-    <n v="7"/>
+    <x v="20"/>
     <x v="470"/>
     <n v="329"/>
   </r>
@@ -9374,7 +9412,7 @@
     <n v="1398771"/>
     <n v="1144986.3970000001"/>
     <n v="158820.4117"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="471"/>
     <n v="861"/>
   </r>
@@ -9386,7 +9424,7 @@
     <n v="389013"/>
     <n v="357353.07299999997"/>
     <n v="141592.70844615385"/>
-    <n v="9"/>
+    <x v="21"/>
     <x v="247"/>
     <n v="224"/>
   </r>
@@ -9398,7 +9436,7 @@
     <n v="880356"/>
     <n v="723289.05500000005"/>
     <n v="166333.57363076921"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="348"/>
     <n v="564"/>
   </r>
@@ -9410,7 +9448,7 @@
     <n v="1230711"/>
     <n v="1005560.455"/>
     <n v="171097.83406153845"/>
-    <n v="16"/>
+    <x v="16"/>
     <x v="472"/>
     <n v="765"/>
   </r>
@@ -9422,7 +9460,7 @@
     <n v="1131676.5"/>
     <n v="966968.63599999994"/>
     <n v="195740.02307692307"/>
-    <n v="16"/>
+    <x v="16"/>
     <x v="473"/>
     <n v="735"/>
   </r>
@@ -9434,7 +9472,7 @@
     <n v="1091040"/>
     <n v="898790.64599999995"/>
     <n v="149313.46028461537"/>
-    <n v="16"/>
+    <x v="16"/>
     <x v="474"/>
     <n v="718"/>
   </r>
@@ -9446,7 +9484,7 @@
     <n v="1350199.5"/>
     <n v="1100106.21"/>
     <n v="107692.85196923077"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="475"/>
     <n v="859"/>
   </r>
@@ -9458,7 +9496,7 @@
     <n v="410892"/>
     <n v="346029.05"/>
     <n v="36168.753846153842"/>
-    <n v="6"/>
+    <x v="22"/>
     <x v="476"/>
     <n v="175"/>
   </r>
@@ -9470,7 +9508,7 @@
     <n v="850840.5"/>
     <n v="733232.38899999997"/>
     <n v="51066.353846153841"/>
-    <n v="7"/>
+    <x v="20"/>
     <x v="477"/>
     <n v="411"/>
   </r>
@@ -9482,7 +9520,7 @@
     <n v="802447.5"/>
     <n v="682814.14599999995"/>
     <n v="81560.983369230773"/>
-    <n v="7"/>
+    <x v="20"/>
     <x v="478"/>
     <n v="418"/>
   </r>
@@ -9494,7 +9532,7 @@
     <n v="1438255.5"/>
     <n v="1180692.7039999999"/>
     <n v="102040.10621538461"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="479"/>
     <n v="893"/>
   </r>
@@ -9506,7 +9544,7 @@
     <n v="1293219"/>
     <n v="1006008.1159999999"/>
     <n v="129348.2923076923"/>
-    <n v="18"/>
+    <x v="3"/>
     <x v="480"/>
     <n v="824"/>
   </r>
@@ -17003,9 +17041,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C74E03F1-7240-4A2A-A2BB-25AB8E76F5F4}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C74E03F1-7240-4A2A-A2BB-25AB8E76F5F4}" name="Сводная таблица2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
     <pivotField axis="axisPage" showAll="0">
       <items count="7">
         <item x="4"/>
@@ -17560,7 +17598,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="482">
         <item x="476"/>
@@ -18048,6 +18086,8 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
@@ -18061,6 +18101,1130 @@
     </i>
     <i>
       <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Сумма по полю Товарооборот, %" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Сумма по полю Товарооборот, руб" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="4" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="3" filterVal="3"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6D4F15F-C9F6-4E77-BCD5-9E41570B17D0}" name="Сводная таблица2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="19">
+        <item x="7"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="503">
+        <item x="265"/>
+        <item x="497"/>
+        <item x="249"/>
+        <item x="383"/>
+        <item x="491"/>
+        <item x="251"/>
+        <item x="377"/>
+        <item x="247"/>
+        <item x="376"/>
+        <item x="60"/>
+        <item x="0"/>
+        <item x="259"/>
+        <item x="70"/>
+        <item x="255"/>
+        <item x="379"/>
+        <item x="489"/>
+        <item x="380"/>
+        <item x="261"/>
+        <item x="2"/>
+        <item x="268"/>
+        <item x="76"/>
+        <item x="404"/>
+        <item x="267"/>
+        <item x="58"/>
+        <item x="72"/>
+        <item x="63"/>
+        <item x="499"/>
+        <item x="498"/>
+        <item x="80"/>
+        <item x="358"/>
+        <item x="1"/>
+        <item x="366"/>
+        <item x="66"/>
+        <item x="257"/>
+        <item x="56"/>
+        <item x="391"/>
+        <item x="359"/>
+        <item x="59"/>
+        <item x="492"/>
+        <item x="79"/>
+        <item x="357"/>
+        <item x="462"/>
+        <item x="68"/>
+        <item x="378"/>
+        <item x="64"/>
+        <item x="252"/>
+        <item x="403"/>
+        <item x="55"/>
+        <item x="62"/>
+        <item x="406"/>
+        <item x="373"/>
+        <item x="356"/>
+        <item x="61"/>
+        <item x="245"/>
+        <item x="370"/>
+        <item x="246"/>
+        <item x="253"/>
+        <item x="463"/>
+        <item x="452"/>
+        <item x="349"/>
+        <item x="250"/>
+        <item x="75"/>
+        <item x="223"/>
+        <item x="225"/>
+        <item x="67"/>
+        <item x="461"/>
+        <item x="367"/>
+        <item x="401"/>
+        <item x="78"/>
+        <item x="350"/>
+        <item x="254"/>
+        <item x="459"/>
+        <item x="269"/>
+        <item x="241"/>
+        <item x="81"/>
+        <item x="238"/>
+        <item x="228"/>
+        <item x="77"/>
+        <item x="234"/>
+        <item x="372"/>
+        <item x="224"/>
+        <item x="83"/>
+        <item x="65"/>
+        <item x="243"/>
+        <item x="456"/>
+        <item x="57"/>
+        <item x="264"/>
+        <item x="232"/>
+        <item x="266"/>
+        <item x="361"/>
+        <item x="360"/>
+        <item x="495"/>
+        <item x="494"/>
+        <item x="288"/>
+        <item x="364"/>
+        <item x="222"/>
+        <item x="235"/>
+        <item x="262"/>
+        <item x="362"/>
+        <item x="501"/>
+        <item x="54"/>
+        <item x="453"/>
+        <item x="233"/>
+        <item x="454"/>
+        <item x="375"/>
+        <item x="407"/>
+        <item x="355"/>
+        <item x="240"/>
+        <item x="493"/>
+        <item x="371"/>
+        <item x="365"/>
+        <item x="82"/>
+        <item x="73"/>
+        <item x="283"/>
+        <item x="408"/>
+        <item x="363"/>
+        <item x="496"/>
+        <item x="221"/>
+        <item x="386"/>
+        <item x="457"/>
+        <item x="369"/>
+        <item x="231"/>
+        <item x="396"/>
+        <item x="244"/>
+        <item x="354"/>
+        <item x="239"/>
+        <item x="458"/>
+        <item x="455"/>
+        <item x="263"/>
+        <item x="229"/>
+        <item x="220"/>
+        <item x="451"/>
+        <item x="500"/>
+        <item x="490"/>
+        <item x="468"/>
+        <item x="227"/>
+        <item x="374"/>
+        <item x="237"/>
+        <item x="230"/>
+        <item x="226"/>
+        <item x="258"/>
+        <item x="368"/>
+        <item x="285"/>
+        <item x="402"/>
+        <item x="449"/>
+        <item x="242"/>
+        <item x="275"/>
+        <item x="219"/>
+        <item x="90"/>
+        <item x="460"/>
+        <item x="385"/>
+        <item x="284"/>
+        <item x="450"/>
+        <item x="236"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="99"/>
+        <item x="274"/>
+        <item x="467"/>
+        <item x="103"/>
+        <item x="286"/>
+        <item x="100"/>
+        <item x="292"/>
+        <item x="256"/>
+        <item x="105"/>
+        <item x="279"/>
+        <item x="106"/>
+        <item x="278"/>
+        <item x="282"/>
+        <item x="7"/>
+        <item x="470"/>
+        <item x="92"/>
+        <item x="248"/>
+        <item x="89"/>
+        <item x="93"/>
+        <item x="18"/>
+        <item x="293"/>
+        <item x="273"/>
+        <item x="281"/>
+        <item x="195"/>
+        <item x="98"/>
+        <item x="16"/>
+        <item x="25"/>
+        <item x="88"/>
+        <item x="276"/>
+        <item x="469"/>
+        <item x="384"/>
+        <item x="260"/>
+        <item x="414"/>
+        <item x="290"/>
+        <item x="466"/>
+        <item x="464"/>
+        <item x="299"/>
+        <item x="12"/>
+        <item x="272"/>
+        <item x="289"/>
+        <item x="413"/>
+        <item x="280"/>
+        <item x="271"/>
+        <item x="9"/>
+        <item x="194"/>
+        <item x="17"/>
+        <item x="471"/>
+        <item x="8"/>
+        <item x="24"/>
+        <item x="201"/>
+        <item x="388"/>
+        <item x="294"/>
+        <item x="205"/>
+        <item x="95"/>
+        <item x="207"/>
+        <item x="22"/>
+        <item x="86"/>
+        <item x="102"/>
+        <item x="193"/>
+        <item x="465"/>
+        <item x="29"/>
+        <item x="6"/>
+        <item x="291"/>
+        <item x="211"/>
+        <item x="409"/>
+        <item x="13"/>
+        <item x="387"/>
+        <item x="297"/>
+        <item x="104"/>
+        <item x="91"/>
+        <item x="15"/>
+        <item x="94"/>
+        <item x="4"/>
+        <item x="107"/>
+        <item x="390"/>
+        <item x="110"/>
+        <item x="5"/>
+        <item x="87"/>
+        <item x="411"/>
+        <item x="202"/>
+        <item x="192"/>
+        <item x="108"/>
+        <item x="198"/>
+        <item x="85"/>
+        <item x="11"/>
+        <item x="19"/>
+        <item x="443"/>
+        <item x="472"/>
+        <item x="381"/>
+        <item x="214"/>
+        <item x="415"/>
+        <item x="10"/>
+        <item x="446"/>
+        <item x="14"/>
+        <item x="389"/>
+        <item x="26"/>
+        <item x="213"/>
+        <item x="270"/>
+        <item x="298"/>
+        <item x="191"/>
+        <item x="277"/>
+        <item x="416"/>
+        <item x="392"/>
+        <item x="84"/>
+        <item x="203"/>
+        <item x="21"/>
+        <item x="382"/>
+        <item x="23"/>
+        <item x="445"/>
+        <item x="287"/>
+        <item x="27"/>
+        <item x="212"/>
+        <item x="410"/>
+        <item x="101"/>
+        <item x="215"/>
+        <item x="190"/>
+        <item x="210"/>
+        <item x="3"/>
+        <item x="109"/>
+        <item x="440"/>
+        <item x="442"/>
+        <item x="196"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="218"/>
+        <item x="447"/>
+        <item x="412"/>
+        <item x="216"/>
+        <item x="20"/>
+        <item x="208"/>
+        <item x="28"/>
+        <item x="189"/>
+        <item x="448"/>
+        <item x="168"/>
+        <item x="197"/>
+        <item x="217"/>
+        <item x="441"/>
+        <item x="435"/>
+        <item x="36"/>
+        <item x="186"/>
+        <item x="180"/>
+        <item x="438"/>
+        <item x="166"/>
+        <item x="171"/>
+        <item x="434"/>
+        <item x="183"/>
+        <item x="174"/>
+        <item x="169"/>
+        <item x="46"/>
+        <item x="432"/>
+        <item x="51"/>
+        <item x="33"/>
+        <item x="209"/>
+        <item x="437"/>
+        <item x="399"/>
+        <item x="178"/>
+        <item x="187"/>
+        <item x="39"/>
+        <item x="397"/>
+        <item x="164"/>
+        <item x="34"/>
+        <item x="176"/>
+        <item x="172"/>
+        <item x="175"/>
+        <item x="52"/>
+        <item x="188"/>
+        <item x="167"/>
+        <item x="439"/>
+        <item x="163"/>
+        <item x="433"/>
+        <item x="204"/>
+        <item x="42"/>
+        <item x="53"/>
+        <item x="48"/>
+        <item x="45"/>
+        <item x="395"/>
+        <item x="49"/>
+        <item x="32"/>
+        <item x="398"/>
+        <item x="74"/>
+        <item x="184"/>
+        <item x="393"/>
+        <item x="44"/>
+        <item x="400"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="37"/>
+        <item x="162"/>
+        <item x="43"/>
+        <item x="170"/>
+        <item x="165"/>
+        <item x="31"/>
+        <item x="50"/>
+        <item x="444"/>
+        <item x="405"/>
+        <item x="30"/>
+        <item x="185"/>
+        <item x="69"/>
+        <item x="181"/>
+        <item x="41"/>
+        <item x="38"/>
+        <item x="394"/>
+        <item x="173"/>
+        <item x="47"/>
+        <item x="206"/>
+        <item x="71"/>
+        <item x="483"/>
+        <item x="476"/>
+        <item x="329"/>
+        <item x="327"/>
+        <item x="482"/>
+        <item x="326"/>
+        <item x="306"/>
+        <item x="486"/>
+        <item x="303"/>
+        <item x="336"/>
+        <item x="475"/>
+        <item x="332"/>
+        <item x="353"/>
+        <item x="309"/>
+        <item x="343"/>
+        <item x="302"/>
+        <item x="348"/>
+        <item x="314"/>
+        <item x="313"/>
+        <item x="485"/>
+        <item x="478"/>
+        <item x="318"/>
+        <item x="342"/>
+        <item x="323"/>
+        <item x="477"/>
+        <item x="305"/>
+        <item x="480"/>
+        <item x="335"/>
+        <item x="296"/>
+        <item x="344"/>
+        <item x="351"/>
+        <item x="295"/>
+        <item x="347"/>
+        <item x="325"/>
+        <item x="312"/>
+        <item x="333"/>
+        <item x="319"/>
+        <item x="481"/>
+        <item x="334"/>
+        <item x="337"/>
+        <item x="473"/>
+        <item x="340"/>
+        <item x="322"/>
+        <item x="311"/>
+        <item x="487"/>
+        <item x="301"/>
+        <item x="328"/>
+        <item x="310"/>
+        <item x="316"/>
+        <item x="346"/>
+        <item x="324"/>
+        <item x="488"/>
+        <item x="331"/>
+        <item x="474"/>
+        <item x="479"/>
+        <item x="345"/>
+        <item x="484"/>
+        <item x="330"/>
+        <item x="321"/>
+        <item x="117"/>
+        <item x="300"/>
+        <item x="420"/>
+        <item x="304"/>
+        <item x="308"/>
+        <item x="320"/>
+        <item x="352"/>
+        <item x="307"/>
+        <item x="339"/>
+        <item x="133"/>
+        <item x="338"/>
+        <item x="315"/>
+        <item x="125"/>
+        <item x="123"/>
+        <item x="129"/>
+        <item x="113"/>
+        <item x="419"/>
+        <item x="421"/>
+        <item x="422"/>
+        <item x="126"/>
+        <item x="341"/>
+        <item x="112"/>
+        <item x="118"/>
+        <item x="127"/>
+        <item x="155"/>
+        <item x="120"/>
+        <item x="115"/>
+        <item x="114"/>
+        <item x="124"/>
+        <item x="417"/>
+        <item x="131"/>
+        <item x="134"/>
+        <item x="121"/>
+        <item x="317"/>
+        <item x="150"/>
+        <item x="119"/>
+        <item x="141"/>
+        <item x="116"/>
+        <item x="122"/>
+        <item x="418"/>
+        <item x="130"/>
+        <item x="427"/>
+        <item x="423"/>
+        <item x="160"/>
+        <item x="111"/>
+        <item x="147"/>
+        <item x="151"/>
+        <item x="426"/>
+        <item x="156"/>
+        <item x="149"/>
+        <item x="429"/>
+        <item x="153"/>
+        <item x="128"/>
+        <item x="137"/>
+        <item x="430"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="136"/>
+        <item x="182"/>
+        <item x="152"/>
+        <item x="158"/>
+        <item x="142"/>
+        <item x="424"/>
+        <item x="132"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="161"/>
+        <item x="148"/>
+        <item x="145"/>
+        <item x="177"/>
+        <item x="140"/>
+        <item x="146"/>
+        <item x="425"/>
+        <item x="157"/>
+        <item x="431"/>
+        <item x="135"/>
+        <item x="428"/>
+        <item x="179"/>
+        <item x="154"/>
+        <item x="159"/>
+        <item x="436"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="25">
+        <item x="22"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="23"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="482">
+        <item x="476"/>
+        <item x="372"/>
+        <item x="258"/>
+        <item x="245"/>
+        <item x="247"/>
+        <item x="366"/>
+        <item x="243"/>
+        <item x="368"/>
+        <item x="70"/>
+        <item x="470"/>
+        <item x="60"/>
+        <item x="369"/>
+        <item x="0"/>
+        <item x="76"/>
+        <item x="365"/>
+        <item x="249"/>
+        <item x="58"/>
+        <item x="2"/>
+        <item x="72"/>
+        <item x="254"/>
+        <item x="261"/>
+        <item x="1"/>
+        <item x="477"/>
+        <item x="260"/>
+        <item x="391"/>
+        <item x="478"/>
+        <item x="59"/>
+        <item x="66"/>
+        <item x="63"/>
+        <item x="379"/>
+        <item x="367"/>
+        <item x="62"/>
+        <item x="79"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="67"/>
+        <item x="356"/>
+        <item x="56"/>
+        <item x="251"/>
+        <item x="68"/>
+        <item x="349"/>
+        <item x="242"/>
+        <item x="248"/>
+        <item x="394"/>
+        <item x="341"/>
+        <item x="78"/>
+        <item x="80"/>
+        <item x="77"/>
+        <item x="57"/>
+        <item x="393"/>
+        <item x="55"/>
+        <item x="348"/>
+        <item x="340"/>
+        <item x="362"/>
+        <item x="64"/>
+        <item x="442"/>
+        <item x="445"/>
+        <item x="61"/>
+        <item x="357"/>
+        <item x="361"/>
+        <item x="259"/>
+        <item x="390"/>
+        <item x="352"/>
+        <item x="444"/>
+        <item x="75"/>
+        <item x="395"/>
+        <item x="65"/>
+        <item x="240"/>
+        <item x="81"/>
+        <item x="221"/>
+        <item x="223"/>
+        <item x="388"/>
+        <item x="54"/>
+        <item x="262"/>
+        <item x="230"/>
+        <item x="232"/>
+        <item x="222"/>
+        <item x="83"/>
+        <item x="360"/>
+        <item x="238"/>
+        <item x="439"/>
+        <item x="246"/>
+        <item x="474"/>
+        <item x="73"/>
+        <item x="473"/>
+        <item x="257"/>
+        <item x="233"/>
+        <item x="255"/>
+        <item x="226"/>
+        <item x="220"/>
+        <item x="355"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="472"/>
+        <item x="82"/>
+        <item x="396"/>
+        <item x="280"/>
+        <item x="237"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="231"/>
+        <item x="440"/>
+        <item x="364"/>
+        <item x="275"/>
+        <item x="345"/>
+        <item x="229"/>
+        <item x="480"/>
+        <item x="437"/>
+        <item x="241"/>
+        <item x="236"/>
+        <item x="475"/>
+        <item x="389"/>
+        <item x="219"/>
+        <item x="438"/>
+        <item x="449"/>
+        <item x="471"/>
+        <item x="359"/>
+        <item x="225"/>
+        <item x="363"/>
+        <item x="218"/>
+        <item x="479"/>
+        <item x="441"/>
+        <item x="375"/>
+        <item x="384"/>
+        <item x="358"/>
+        <item x="227"/>
+        <item x="277"/>
+        <item x="228"/>
+        <item x="256"/>
+        <item x="217"/>
+        <item x="239"/>
+        <item x="224"/>
+        <item x="235"/>
+        <item x="436"/>
+        <item x="252"/>
+        <item x="434"/>
+        <item x="267"/>
+        <item x="374"/>
+        <item x="89"/>
+        <item x="435"/>
+        <item x="234"/>
+        <item x="443"/>
+        <item x="276"/>
+        <item x="98"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="266"/>
+        <item x="91"/>
+        <item x="99"/>
+        <item x="250"/>
+        <item x="278"/>
+        <item x="7"/>
+        <item x="18"/>
+        <item x="103"/>
+        <item x="448"/>
+        <item x="104"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="25"/>
+        <item x="284"/>
+        <item x="87"/>
+        <item x="373"/>
+        <item x="270"/>
+        <item x="244"/>
+        <item x="274"/>
+        <item x="193"/>
+        <item x="273"/>
+        <item x="97"/>
+        <item x="451"/>
+        <item x="24"/>
+        <item x="92"/>
+        <item x="271"/>
+        <item x="12"/>
+        <item x="282"/>
+        <item x="401"/>
+        <item x="192"/>
+        <item x="8"/>
+        <item x="253"/>
+        <item x="17"/>
+        <item x="377"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="203"/>
+        <item x="6"/>
+        <item x="450"/>
+        <item x="205"/>
+        <item x="209"/>
+        <item x="199"/>
+        <item x="15"/>
+        <item x="452"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item x="265"/>
+        <item x="191"/>
+        <item x="268"/>
+        <item x="272"/>
+        <item x="11"/>
+        <item x="264"/>
+        <item x="376"/>
+        <item x="283"/>
+        <item x="200"/>
+        <item x="102"/>
+        <item x="86"/>
+        <item x="400"/>
+        <item x="447"/>
+        <item x="4"/>
+        <item x="285"/>
+        <item x="85"/>
+        <item x="446"/>
+        <item x="5"/>
+        <item x="290"/>
+        <item x="212"/>
+        <item x="29"/>
+        <item x="94"/>
+        <item x="190"/>
+        <item x="281"/>
+        <item x="430"/>
+        <item x="14"/>
+        <item x="196"/>
+        <item x="402"/>
+        <item x="93"/>
+        <item x="211"/>
+        <item x="269"/>
+        <item x="432"/>
+        <item x="26"/>
+        <item x="101"/>
+        <item x="105"/>
+        <item x="23"/>
+        <item x="378"/>
+        <item x="90"/>
+        <item x="263"/>
+        <item x="10"/>
+        <item x="371"/>
+        <item x="189"/>
+        <item x="288"/>
+        <item x="106"/>
+        <item x="201"/>
+        <item x="453"/>
+        <item x="370"/>
+        <item x="84"/>
+        <item x="21"/>
+        <item x="108"/>
+        <item x="380"/>
+        <item x="210"/>
+        <item x="398"/>
+        <item x="3"/>
+        <item x="289"/>
+        <item x="279"/>
+        <item x="188"/>
+        <item x="403"/>
+        <item x="213"/>
+        <item x="433"/>
+        <item x="100"/>
+        <item x="27"/>
+        <item x="397"/>
+        <item x="208"/>
+        <item x="197"/>
+        <item x="20"/>
+        <item x="198"/>
+        <item x="194"/>
+        <item x="187"/>
+        <item x="427"/>
+        <item x="107"/>
+        <item x="216"/>
+        <item x="206"/>
+        <item x="195"/>
+        <item x="214"/>
+        <item x="399"/>
+        <item x="429"/>
+        <item x="28"/>
+        <item x="215"/>
+        <item x="428"/>
+        <item x="166"/>
+        <item x="422"/>
+        <item x="36"/>
+        <item x="184"/>
+        <item x="425"/>
+        <item x="178"/>
+        <item x="169"/>
+        <item x="164"/>
+        <item x="33"/>
+        <item x="172"/>
+        <item x="51"/>
+        <item x="181"/>
+        <item x="386"/>
+        <item x="46"/>
+        <item x="421"/>
+        <item x="176"/>
+        <item x="167"/>
+        <item x="39"/>
+        <item x="170"/>
+        <item x="185"/>
+        <item x="207"/>
+        <item x="420"/>
+        <item x="426"/>
+        <item x="424"/>
+        <item x="52"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="173"/>
+        <item x="165"/>
+        <item x="419"/>
+        <item x="174"/>
+        <item x="34"/>
+        <item x="53"/>
+        <item x="161"/>
+        <item x="49"/>
+        <item x="182"/>
+        <item x="45"/>
+        <item x="385"/>
+        <item x="387"/>
+        <item x="42"/>
+        <item x="32"/>
+        <item x="40"/>
+        <item x="48"/>
+        <item x="202"/>
+        <item x="44"/>
+        <item x="160"/>
+        <item x="381"/>
+        <item x="74"/>
+        <item x="35"/>
+        <item x="31"/>
+        <item x="163"/>
+        <item x="168"/>
+        <item x="43"/>
+        <item x="383"/>
+        <item x="37"/>
+        <item x="50"/>
+        <item x="30"/>
+        <item x="179"/>
+        <item x="431"/>
+        <item x="41"/>
+        <item x="183"/>
+        <item x="392"/>
+        <item x="69"/>
+        <item x="171"/>
+        <item x="382"/>
+        <item x="38"/>
+        <item x="47"/>
+        <item x="204"/>
+        <item x="71"/>
+        <item x="464"/>
+        <item x="457"/>
+        <item x="317"/>
+        <item x="467"/>
+        <item x="318"/>
+        <item x="327"/>
+        <item x="323"/>
+        <item x="320"/>
+        <item x="293"/>
+        <item x="463"/>
+        <item x="459"/>
+        <item x="300"/>
+        <item x="305"/>
+        <item x="466"/>
+        <item x="294"/>
+        <item x="339"/>
+        <item x="456"/>
+        <item x="304"/>
+        <item x="334"/>
+        <item x="344"/>
+        <item x="297"/>
+        <item x="458"/>
+        <item x="338"/>
+        <item x="296"/>
+        <item x="326"/>
+        <item x="468"/>
+        <item x="335"/>
+        <item x="314"/>
+        <item x="333"/>
+        <item x="287"/>
+        <item x="309"/>
+        <item x="462"/>
+        <item x="316"/>
+        <item x="461"/>
+        <item x="342"/>
+        <item x="315"/>
+        <item x="286"/>
+        <item x="324"/>
+        <item x="310"/>
+        <item x="325"/>
+        <item x="331"/>
+        <item x="303"/>
+        <item x="313"/>
+        <item x="460"/>
+        <item x="337"/>
+        <item x="319"/>
+        <item x="328"/>
+        <item x="302"/>
+        <item x="336"/>
+        <item x="292"/>
+        <item x="454"/>
+        <item x="301"/>
+        <item x="115"/>
+        <item x="469"/>
+        <item x="407"/>
+        <item x="291"/>
+        <item x="455"/>
+        <item x="312"/>
+        <item x="307"/>
+        <item x="322"/>
+        <item x="295"/>
+        <item x="321"/>
+        <item x="465"/>
+        <item x="311"/>
+        <item x="131"/>
+        <item x="343"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="299"/>
+        <item x="306"/>
+        <item x="123"/>
+        <item x="298"/>
+        <item x="121"/>
+        <item x="111"/>
+        <item x="124"/>
+        <item x="409"/>
+        <item x="127"/>
+        <item x="408"/>
+        <item x="110"/>
+        <item x="332"/>
+        <item x="406"/>
+        <item x="119"/>
+        <item x="125"/>
+        <item x="118"/>
+        <item x="112"/>
+        <item x="132"/>
+        <item x="129"/>
+        <item x="122"/>
+        <item x="153"/>
+        <item x="116"/>
+        <item x="113"/>
+        <item x="139"/>
+        <item x="117"/>
+        <item x="405"/>
+        <item x="120"/>
+        <item x="404"/>
+        <item x="148"/>
+        <item x="308"/>
+        <item x="114"/>
+        <item x="410"/>
+        <item x="109"/>
+        <item x="158"/>
+        <item x="128"/>
+        <item x="414"/>
+        <item x="149"/>
+        <item x="145"/>
+        <item x="126"/>
+        <item x="147"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="151"/>
+        <item x="150"/>
+        <item x="417"/>
+        <item x="413"/>
+        <item x="154"/>
+        <item x="156"/>
+        <item x="416"/>
+        <item x="130"/>
+        <item x="137"/>
+        <item x="141"/>
+        <item x="134"/>
+        <item x="180"/>
+        <item x="143"/>
+        <item x="146"/>
+        <item x="159"/>
+        <item x="142"/>
+        <item x="140"/>
+        <item x="411"/>
+        <item x="175"/>
+        <item x="412"/>
+        <item x="144"/>
+        <item x="418"/>
+        <item x="138"/>
+        <item x="133"/>
+        <item x="155"/>
+        <item x="415"/>
+        <item x="177"/>
+        <item x="152"/>
+        <item x="157"/>
+        <item x="423"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -18084,13 +19248,13 @@
     <pageField fld="0" item="5" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="Сумма по полю Товарооборот, %" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
     <dataField name="Сумма по полю Товарооборот, руб" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Сумма по полю Количество складов" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Товарооборот на склад" fld="11" baseField="2" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="2" type="count" evalOrder="-1" id="3" iMeasureFld="0">
+    <filter fld="2" type="count" evalOrder="-1" id="4" iMeasureFld="2">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <top10 val="3" filterVal="3"/>
@@ -18391,9 +19555,8 @@
         <f>D2&amp;C2</f>
         <v>Самара43982</v>
       </c>
-      <c r="B2">
-        <f>WEEKNUM(C2,2)</f>
-        <v>22</v>
+      <c r="B2" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="6">
         <v>43982</v>
@@ -56235,7 +57398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E7D64C-AD54-4187-812A-1A434177AC00}">
   <dimension ref="A3:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -56345,10 +57508,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FE2DC5-D9C2-4D3B-8297-4AF7010D98F3}">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56356,7 +57519,107 @@
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.43276325201927673</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1380723900.7513499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.32459420883501405</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1035612381.8110501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.24264253914570927</v>
+      </c>
+      <c r="C7" s="23">
+        <v>774146953.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="23">
+        <v>3190483236.0623999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7C2468-1ACD-4F3D-859D-EEFC8FF9C9D4}">
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
@@ -56387,72 +57650,75 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="19">
-        <v>0.44095612192448397</v>
-      </c>
-      <c r="C5">
-        <v>37257840.18135</v>
-      </c>
-      <c r="D5">
-        <v>123</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="23">
+        <v>18914194.5</v>
+      </c>
+      <c r="C5" s="23">
+        <v>54</v>
+      </c>
+      <c r="D5" s="23">
+        <v>350262.86111111112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.32866618769849743</v>
-      </c>
-      <c r="C6">
-        <v>27770092.5</v>
-      </c>
-      <c r="D6">
-        <v>128</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="23">
+        <v>19465372.5</v>
+      </c>
+      <c r="C6" s="23">
+        <v>59</v>
+      </c>
+      <c r="D6" s="23">
+        <v>329921.56779661018</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="19">
-        <v>0.23037769037701872</v>
-      </c>
-      <c r="C7">
-        <v>19465372.5</v>
-      </c>
-      <c r="D7">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="23">
+        <v>37257840.18135</v>
+      </c>
+      <c r="C7" s="23">
+        <v>123</v>
+      </c>
+      <c r="D7" s="23">
+        <v>302909.26976707316</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>84493305.181349993</v>
-      </c>
-      <c r="D8">
-        <v>310</v>
+      <c r="B8" s="23">
+        <v>75637407.181349993</v>
+      </c>
+      <c r="C8" s="23">
+        <v>236</v>
+      </c>
+      <c r="D8" s="23">
+        <v>320497.48805656779</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A4:C23">
+    <sortCondition descending="1" ref="B4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
